--- a/ownership-rate/data/ownership_rate-by-re.xlsx
+++ b/ownership-rate/data/ownership_rate-by-re.xlsx
@@ -1,153 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclute\GitHub\exploration-race-ethnicity\ownership-rate\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7015E3EF-940F-494F-BEE7-A1E9397A2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="detail" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dichot" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="single" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="detail" sheetId="1" r:id="rId1"/>
+    <sheet name="dichot" sheetId="2" r:id="rId2"/>
+    <sheet name="single" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="42">
   <si>
-    <t xml:space="preserve">DATA_YEAR</t>
+    <t>DATA_YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">COUNTY</t>
+    <t>COUNTY</t>
   </si>
   <si>
-    <t xml:space="preserve">RACE</t>
+    <t>RACE</t>
   </si>
   <si>
-    <t xml:space="preserve">TABLE_TYPE</t>
+    <t>TABLE_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_count</t>
+    <t>ARACE_count</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_count</t>
+    <t>PRACE_count</t>
   </si>
   <si>
-    <t xml:space="preserve">HRACE_count</t>
+    <t>HRACE_count</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_share</t>
+    <t>ARACE_share</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_share</t>
+    <t>PRACE_share</t>
   </si>
   <si>
-    <t xml:space="preserve">HRACE_share</t>
+    <t>HRACE_share</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_reliability</t>
+    <t>ARACE_reliability</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_reliability</t>
+    <t>PRACE_reliability</t>
   </si>
   <si>
-    <t xml:space="preserve">HRACE_reliability</t>
+    <t>HRACE_reliability</t>
   </si>
   <si>
-    <t xml:space="preserve">King</t>
+    <t>King</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t>American Indian or Alaskan Native alone</t>
   </si>
   <si>
-    <t xml:space="preserve">detail</t>
+    <t>detail</t>
   </si>
   <si>
-    <t xml:space="preserve">fair</t>
+    <t>fair</t>
   </si>
   <si>
-    <t xml:space="preserve">good</t>
+    <t>good</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t>Asian alone</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t>Black or African American alone</t>
   </si>
   <si>
-    <t xml:space="preserve">Hispanic or Latino</t>
+    <t>Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t>Multiracial incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t>Multiracial incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t>Multiracial incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t>Multiracial not Asian or white</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t>Native Hawaiian and Other Pacific Islander alone</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t>Some Other Race alone</t>
   </si>
   <si>
-    <t xml:space="preserve">Two or More Races</t>
+    <t>Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t>White alone</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace</t>
+    <t>Total Multirace</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multiple Races</t>
+    <t>Total Multiple Races</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of Color</t>
+    <t>Total People of Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Kitsap</t>
+    <t>Kitsap</t>
   </si>
   <si>
-    <t xml:space="preserve">unreliable</t>
+    <t>unreliable</t>
   </si>
   <si>
-    <t xml:space="preserve">weak</t>
+    <t>weak</t>
   </si>
   <si>
-    <t xml:space="preserve">Pierce</t>
+    <t>Pierce</t>
   </si>
   <si>
-    <t xml:space="preserve">Snohomish</t>
+    <t>Snohomish</t>
   </si>
   <si>
-    <t xml:space="preserve">Region</t>
+    <t>Region</t>
   </si>
   <si>
-    <t xml:space="preserve">dichot</t>
+    <t>dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t>Multiracial not white</t>
   </si>
   <si>
-    <t xml:space="preserve">single</t>
+    <t>single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t>Multiple Races</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,16 +187,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,14 +490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,13 +525,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -512,8 +544,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2" t="s">
@@ -525,23 +557,23 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>602</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1299</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.322097378277154</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.41146658219829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.248346361996392</v>
+      <c r="H2" s="1">
+        <v>0.32209737827715401</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.41146658219829002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -553,8 +585,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2023</v>
       </c>
       <c r="B3" t="s">
@@ -566,23 +598,23 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>88924</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>101569</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.574103246132789</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.584593336134405</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.572579592901879</v>
+      <c r="H3" s="1">
+        <v>0.57410324613278896</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.58459333613440501</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -594,8 +626,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" t="s">
@@ -607,22 +639,22 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12354</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>14666</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.254795198614033</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.270141830908086</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="1">
+        <v>0.25479519861403299</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.27014183090808602</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -635,8 +667,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2023</v>
       </c>
       <c r="B5" t="s">
@@ -648,22 +680,22 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>16656</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>27012</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.307414038131448</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.364613141838994</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="1">
+        <v>0.30741403813144802</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.36461314183899401</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -676,8 +708,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6" t="s">
@@ -689,30 +721,27 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7666</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>8749</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="1">
         <v>0.566467154363408</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" t="n">
-        <v>0.581097236981934</v>
+      <c r="J6" s="1">
+        <v>0.58109723698193405</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" t="s">
@@ -724,30 +753,27 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>26737</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>27538</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.68079851297329</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" t="n">
-        <v>0.684275916906868</v>
+      <c r="H7" s="1">
+        <v>0.68079851297328997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.68427591690686795</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8" t="s">
@@ -759,30 +785,27 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>45254</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>49467</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.586184116786052</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" t="n">
-        <v>0.584474508182194</v>
+      <c r="H8" s="1">
+        <v>0.58618411678605198</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.58447450818219404</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="L8"/>
       <c r="M8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2023</v>
       </c>
       <c r="B9" t="s">
@@ -794,30 +817,27 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4656</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5120</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.402003108271456</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" t="n">
-        <v>0.37347727770078</v>
+      <c r="H9" s="1">
+        <v>0.40200310827145602</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.37347727770077999</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="L9"/>
       <c r="M9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2023</v>
       </c>
       <c r="B10" t="s">
@@ -829,23 +849,23 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>676</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1342</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>676</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.180170575692964</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.26432932834351</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.194420477423066</v>
+      <c r="H10" s="1">
+        <v>0.18017057569296399</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.26432932834350997</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.19442047742306601</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -857,8 +877,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2023</v>
       </c>
       <c r="B11" t="s">
@@ -870,23 +890,23 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2066</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2536</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2041</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.570718232044199</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.56619781201161</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.568365357839042</v>
+      <c r="H11" s="1">
+        <v>0.57071823204419903</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.56619781201161001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.56836535783904196</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -898,8 +918,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12" t="s">
@@ -911,22 +931,22 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>10291</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>21977</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>9941</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.365032633371169</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="1">
+        <v>0.36503263337116898</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.366070113418766</v>
       </c>
       <c r="K12" t="s">
@@ -939,8 +959,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13" t="s">
@@ -952,23 +972,23 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>304280</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>349803</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>300002</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.619884041673288</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.620752989277995</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.619865737976234</v>
+      <c r="H13" s="1">
+        <v>0.61988404167328803</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.62075298927799505</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.61986573797623401</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -980,8 +1000,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2023</v>
       </c>
       <c r="B14" t="s">
@@ -993,30 +1013,27 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>84313</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>90874</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.595477049770816</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" t="n">
-        <v>0.591458176043321</v>
+      <c r="H14" s="1">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14"/>
       <c r="M14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15" t="s">
@@ -1028,22 +1045,22 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>94604</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>21977</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>100815</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.557211937731548</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="1">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.557605088495575</v>
       </c>
       <c r="K15" t="s">
@@ -1056,8 +1073,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2023</v>
       </c>
       <c r="B16" t="s">
@@ -1069,23 +1086,23 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>215882</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>170401</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>220202</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.494483268855035</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.467740120283168</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.496127000148702</v>
+      <c r="H16" s="1">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1097,8 +1114,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2023</v>
       </c>
       <c r="B17" t="s">
@@ -1110,23 +1127,23 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>284</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>470</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>281</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="1">
         <v>0.462540716612378</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.504291845493562</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.467554076539101</v>
+      <c r="I17" s="1">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -1138,8 +1155,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2023</v>
       </c>
       <c r="B18" t="s">
@@ -1151,22 +1168,22 @@
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2138</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>2957</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>2046</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.688788659793814</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.700213118636041</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="H18" s="1">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.682454969979987</v>
       </c>
       <c r="K18" t="s">
@@ -1179,8 +1196,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2023</v>
       </c>
       <c r="B19" t="s">
@@ -1192,23 +1209,23 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>524</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>924</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>511</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.330390920554855</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.362210897687182</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.327564102564103</v>
+      <c r="H19" s="1">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K19" t="s">
         <v>16</v>
@@ -1220,8 +1237,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
@@ -1233,23 +1250,23 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1600</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3559</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1577</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.40650406504065</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.493551518513382</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.404048168075839</v>
+      <c r="H20" s="1">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -1261,8 +1278,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
@@ -1274,30 +1291,27 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>504</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>618</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.609431680773882</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21" t="n">
-        <v>0.647120418848168</v>
+      <c r="H21" s="1">
+        <v>0.60943168077388199</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.64712041884816796</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
       </c>
-      <c r="L21"/>
       <c r="M21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
@@ -1309,30 +1323,27 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2968</v>
       </c>
-      <c r="F22"/>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3027</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.834880450070324</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22" t="n">
-        <v>0.837576092971776</v>
+      <c r="H22" s="1">
+        <v>0.83488045007032397</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.83757609297177604</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="L22"/>
       <c r="M22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
@@ -1344,30 +1355,27 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>8515</v>
       </c>
-      <c r="F23"/>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>9595</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.681363527246539</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>0.668222021032105</v>
+      <c r="H23" s="1">
+        <v>0.68136352724653904</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.66822202103210504</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="L23"/>
       <c r="M23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
@@ -1379,30 +1387,27 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>648</v>
       </c>
-      <c r="F24"/>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>657</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.374133949191686</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24" t="n">
-        <v>0.352278820375335</v>
+      <c r="H24" s="1">
+        <v>0.37413394919168602</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.35227882037533498</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
       </c>
-      <c r="L24"/>
       <c r="M24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
@@ -1414,23 +1419,23 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>77</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>444</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>77</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.239130434782609</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.581913499344692</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.239130434782609</v>
+      <c r="H25" s="1">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K25" t="s">
         <v>33</v>
@@ -1442,8 +1447,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
@@ -1455,22 +1460,22 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>419</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>520</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>419</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="1">
         <v>0.662974683544304</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.709413369713506</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I26" s="1">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J26" s="1">
         <v>0.662974683544304</v>
       </c>
       <c r="K26" t="s">
@@ -1483,8 +1488,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
@@ -1496,22 +1501,22 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1843</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3414</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1817</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="1">
         <v>0.593367675466838</v>
       </c>
-      <c r="I27" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I27" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J27" s="1">
         <v>0.612403100775194</v>
       </c>
       <c r="K27" t="s">
@@ -1524,8 +1529,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
@@ -1537,22 +1542,22 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>55521</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>62753</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>54416</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.737007685874716</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.737420385908012</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H28" s="1">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J28" s="1">
         <v>0.740474635314609</v>
       </c>
       <c r="K28" t="s">
@@ -1565,8 +1570,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>2023</v>
       </c>
       <c r="B29" t="s">
@@ -1578,30 +1583,27 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>12635</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>13897</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.678899575519854</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29" t="n">
-        <v>0.668349925455682</v>
+      <c r="H29" s="1">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L29"/>
       <c r="M29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>2023</v>
       </c>
       <c r="B30" t="s">
@@ -1613,23 +1615,23 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>14478</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3414</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>15714</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.661363636363636</v>
+      <c r="H30" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -1641,8 +1643,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2023</v>
       </c>
       <c r="B31" t="s">
@@ -1654,23 +1656,23 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>19520</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>12288</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>20625</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.611701294224562</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.554362537219165</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.610640691615348</v>
+      <c r="H31" s="1">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -1682,8 +1684,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>2023</v>
       </c>
       <c r="B32" t="s">
@@ -1695,23 +1697,23 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>976</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1606</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>929</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.696148359486448</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.665010351966874</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.688148148148148</v>
+      <c r="H32" s="1">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
@@ -1723,8 +1725,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2023</v>
       </c>
       <c r="B33" t="s">
@@ -1736,23 +1738,23 @@
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>10520</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>14057</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>10168</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.65443234836703</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.676565432930644</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.659446137881834</v>
+      <c r="H33" s="1">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -1764,8 +1766,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>2023</v>
       </c>
       <c r="B34" t="s">
@@ -1777,23 +1779,23 @@
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>6072</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>8471</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>5883</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.333553065260382</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.371339645800456</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.334813044220591</v>
+      <c r="H34" s="1">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -1805,8 +1807,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
@@ -1818,22 +1820,22 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>9666</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>16206</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>9382</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.445253120825464</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.512054093336282</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="H35" s="1">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.439129417271238</v>
       </c>
       <c r="K35" t="s">
@@ -1846,8 +1848,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
@@ -1859,30 +1861,27 @@
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3370</v>
       </c>
-      <c r="F36"/>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3615</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.64509954058193</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36" t="n">
-        <v>0.622096024780589</v>
+      <c r="H36" s="1">
+        <v>0.64509954058192998</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.62209602478058901</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L36"/>
       <c r="M36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
@@ -1894,30 +1893,27 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>7363</v>
       </c>
-      <c r="F37"/>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>7728</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.758759274525969</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37" t="n">
-        <v>0.764997030291031</v>
+      <c r="H37" s="1">
+        <v>0.75875927452596903</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.76499703029103105</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
-      <c r="L37"/>
       <c r="M37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>2023</v>
       </c>
       <c r="B38" t="s">
@@ -1929,30 +1925,27 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>28809</v>
       </c>
-      <c r="F38"/>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>32197</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.669883272101567</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" t="n">
-        <v>0.658371503353509</v>
+      <c r="H38" s="1">
+        <v>0.66988327210156695</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.65837150335350902</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38"/>
       <c r="M38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2023</v>
       </c>
       <c r="B39" t="s">
@@ -1964,30 +1957,27 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>3816</v>
       </c>
-      <c r="F39"/>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>4334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.531994981179423</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39" t="n">
-        <v>0.496505899873983</v>
+      <c r="H39" s="1">
+        <v>0.53199498117942301</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.49650589987398303</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
-      <c r="L39"/>
       <c r="M39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>2023</v>
       </c>
       <c r="B40" t="s">
@@ -1999,23 +1989,23 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>891</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>1303</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>849</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.355234460196292</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.307052441229656</v>
+      <c r="H40" s="1">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K40" t="s">
         <v>16</v>
@@ -2027,8 +2017,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>2023</v>
       </c>
       <c r="B41" t="s">
@@ -2040,22 +2030,22 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>847</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>1025</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>774</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="1">
         <v>0.589422407794015</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.617469879518072</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="I41" s="1">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J41" s="1">
         <v>0.577181208053691</v>
       </c>
       <c r="K41" t="s">
@@ -2068,8 +2058,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>2023</v>
       </c>
       <c r="B42" t="s">
@@ -2081,23 +2071,23 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>5319</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>13235</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>5117</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="1">
         <v>0.455004277159966</v>
       </c>
-      <c r="I42" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.47026927672089</v>
+      <c r="I42" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
@@ -2109,8 +2099,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2023</v>
       </c>
       <c r="B43" t="s">
@@ -2122,23 +2112,23 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>146314</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>168085</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>143012</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.70311155962421</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.700999670529946</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.706347207199198</v>
+      <c r="H43" s="1">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -2150,8 +2140,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>2023</v>
       </c>
       <c r="B44" t="s">
@@ -2163,30 +2153,27 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>43358</v>
       </c>
-      <c r="F44"/>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>47874</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.665949897860445</v>
-      </c>
-      <c r="I44"/>
-      <c r="J44" t="n">
-        <v>0.650939548037963</v>
+      <c r="H44" s="1">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
       </c>
-      <c r="L44"/>
       <c r="M44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>2023</v>
       </c>
       <c r="B45" t="s">
@@ -2198,23 +2185,23 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>48677</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>13235</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>52991</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.633839863536336</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.627654660239023</v>
+      <c r="H45" s="1">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2226,8 +2213,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>2023</v>
       </c>
       <c r="B46" t="s">
@@ -2239,23 +2226,23 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>77649</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>55903</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>80976</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.560796464011787</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.522819520041898</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.561405454873196</v>
+      <c r="H46" s="1">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2267,8 +2254,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
@@ -2280,23 +2267,23 @@
       <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>519</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>969</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>519</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.587768969422424</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.54994324631101</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.627569528415961</v>
+      <c r="H47" s="1">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K47" t="s">
         <v>16</v>
@@ -2308,8 +2295,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" t="s">
@@ -2321,23 +2308,23 @@
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>24413</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>27742</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>24214</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.777088107970461</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.777871242709735</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.77723566797201</v>
+      <c r="H48" s="1">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -2349,8 +2336,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>2023</v>
       </c>
       <c r="B49" t="s">
@@ -2362,23 +2349,23 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>3337</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>4599</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>3321</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.423208623969562</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="H49" s="1">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I49" s="1">
         <v>0.45288035450517</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.422519083969466</v>
+      <c r="J49" s="1">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -2390,8 +2377,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>2023</v>
       </c>
       <c r="B50" t="s">
@@ -2403,23 +2390,23 @@
       <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>7297</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>11935</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>7086</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.398656031468531</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.479876160990712</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.396730306253849</v>
+      <c r="H50" s="1">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -2431,8 +2418,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>2023</v>
       </c>
       <c r="B51" t="s">
@@ -2444,30 +2431,27 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>2432</v>
       </c>
-      <c r="F51"/>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>2614</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.687977369165488</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51" t="n">
+      <c r="H51" s="1">
+        <v>0.68797736916548802</v>
+      </c>
+      <c r="J51" s="1">
         <v>0.691534391534392</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
-      <c r="L51"/>
       <c r="M51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>2023</v>
       </c>
       <c r="B52" t="s">
@@ -2479,30 +2463,27 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>7353</v>
       </c>
-      <c r="F52"/>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>7883</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.82073892175466</v>
-      </c>
-      <c r="I52"/>
-      <c r="J52" t="n">
-        <v>0.823461819701243</v>
+      <c r="H52" s="1">
+        <v>0.82073892175466001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.82346181970124299</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
-      <c r="L52"/>
       <c r="M52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>2023</v>
       </c>
       <c r="B53" t="s">
@@ -2514,30 +2495,27 @@
       <c r="D53" t="s">
         <v>15</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>21167</v>
       </c>
-      <c r="F53"/>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>23537</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.690265775313876</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53" t="n">
-        <v>0.66845588026469</v>
+      <c r="H53" s="1">
+        <v>0.69026577531387601</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.66845588026469005</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
       </c>
-      <c r="L53"/>
       <c r="M53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>2023</v>
       </c>
       <c r="B54" t="s">
@@ -2549,30 +2527,27 @@
       <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>1357</v>
       </c>
-      <c r="F54"/>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>1572</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54" s="1">
         <v>0.457056247894914</v>
       </c>
-      <c r="I54"/>
-      <c r="J54" t="n">
-        <v>0.450817321479782</v>
+      <c r="J54" s="1">
+        <v>0.45081732147978198</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
-      <c r="L54"/>
       <c r="M54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>2023</v>
       </c>
       <c r="B55" t="s">
@@ -2584,23 +2559,23 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>25</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>213</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>25</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.043630017452007</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.241223103057758</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0463821892393321</v>
+      <c r="H55" s="1">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K55" t="s">
         <v>33</v>
@@ -2612,8 +2587,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>2023</v>
       </c>
       <c r="B56" t="s">
@@ -2625,23 +2600,23 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>832</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>1043</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>832</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.612214863870493</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.568392370572207</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.624156039009752</v>
+      <c r="H56" s="1">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
@@ -2653,8 +2628,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>2023</v>
       </c>
       <c r="B57" t="s">
@@ -2666,23 +2641,23 @@
       <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>4283</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>9170</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>4149</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.58050962320412</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.584366197183099</v>
+      <c r="H57" s="1">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -2694,8 +2669,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>2023</v>
       </c>
       <c r="B58" t="s">
@@ -2707,23 +2682,23 @@
       <c r="D58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>139417</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>156774</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>136693</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.704952267303103</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.705052213097797</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.707879773384015</v>
+      <c r="H58" s="1">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -2735,8 +2710,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>2023</v>
       </c>
       <c r="B59" t="s">
@@ -2748,30 +2723,27 @@
       <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>32309</v>
       </c>
-      <c r="F59"/>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>35606</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.70042056885189</v>
-      </c>
-      <c r="I59"/>
-      <c r="J59" t="n">
-        <v>0.684059864363797</v>
+      <c r="H59" s="1">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>2023</v>
       </c>
       <c r="B60" t="s">
@@ -2783,23 +2755,23 @@
       <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>36592</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>9170</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>39755</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.683885919336149</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.67209345573194</v>
+      <c r="H60" s="1">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -2811,8 +2783,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>2023</v>
       </c>
       <c r="B61" t="s">
@@ -2824,23 +2796,23 @@
       <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>73015</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>55671</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>75752</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.640898477959377</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.622237870100258</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.638045904400926</v>
+      <c r="H61" s="1">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -2852,8 +2824,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>2023</v>
       </c>
       <c r="B62" t="s">
@@ -2865,23 +2837,23 @@
       <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>2381</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>4344</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>2142</v>
       </c>
-      <c r="H62" t="n">
-        <v>0.499370805369128</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.525526252117106</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.482323800945733</v>
+      <c r="H62" s="1">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -2893,8 +2865,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>2023</v>
       </c>
       <c r="B63" t="s">
@@ -2906,23 +2878,23 @@
       <c r="D63" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>125995</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>146325</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>124193</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.613153143507862</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.624234771145913</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6122375536724</v>
+      <c r="H63" s="1">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -2934,8 +2906,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>2023</v>
       </c>
       <c r="B64" t="s">
@@ -2947,23 +2919,23 @@
       <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>22287</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>28660</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>21846</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64" s="1">
         <v>0.292630086264624</v>
       </c>
-      <c r="I64" t="n">
-        <v>0.319125244967041</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.293278202150653</v>
+      <c r="I64" s="1">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -2975,8 +2947,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>2023</v>
       </c>
       <c r="B65" t="s">
@@ -2988,23 +2960,23 @@
       <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>35219</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>58712</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>34406</v>
       </c>
-      <c r="H65" t="n">
-        <v>0.358901457250586</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.426020389652795</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.355941321305166</v>
+      <c r="H65" s="1">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -3016,8 +2988,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>2023</v>
       </c>
       <c r="B66" t="s">
@@ -3029,30 +3001,27 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>13972</v>
       </c>
-      <c r="F66"/>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>15596</v>
       </c>
-      <c r="H66" t="n">
-        <v>0.604351399281976</v>
-      </c>
-      <c r="I66"/>
-      <c r="J66" t="n">
-        <v>0.609171158503242</v>
+      <c r="H66" s="1">
+        <v>0.60435139928197601</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.60917115850324199</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
       </c>
-      <c r="L66"/>
       <c r="M66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>2023</v>
       </c>
       <c r="B67" t="s">
@@ -3064,30 +3033,27 @@
       <c r="D67" t="s">
         <v>15</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>44421</v>
       </c>
-      <c r="F67"/>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>46176</v>
       </c>
-      <c r="H67" t="n">
-        <v>0.722398399765819</v>
-      </c>
-      <c r="I67"/>
-      <c r="J67" t="n">
-        <v>0.726803393512033</v>
+      <c r="H67" s="1">
+        <v>0.72239839976581899</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.72680339351203305</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
       </c>
-      <c r="L67"/>
       <c r="M67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>2023</v>
       </c>
       <c r="B68" t="s">
@@ -3099,30 +3065,27 @@
       <c r="D68" t="s">
         <v>15</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>103745</v>
       </c>
-      <c r="F68"/>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>114796</v>
       </c>
-      <c r="H68" t="n">
-        <v>0.635034798523588</v>
-      </c>
-      <c r="I68"/>
-      <c r="J68" t="n">
-        <v>0.626927130834639</v>
+      <c r="H68" s="1">
+        <v>0.63503479852358802</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.62692713083463902</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
       </c>
-      <c r="L68"/>
       <c r="M68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>2023</v>
       </c>
       <c r="B69" t="s">
@@ -3134,30 +3097,27 @@
       <c r="D69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>10477</v>
       </c>
-      <c r="F69"/>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>11683</v>
       </c>
-      <c r="H69" t="n">
-        <v>0.446666098226467</v>
-      </c>
-      <c r="I69"/>
-      <c r="J69" t="n">
+      <c r="H69" s="1">
+        <v>0.44666609822646702</v>
+      </c>
+      <c r="J69" s="1">
         <v>0.420403022670025</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
       </c>
-      <c r="L69"/>
       <c r="M69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>2023</v>
       </c>
       <c r="B70" t="s">
@@ -3169,22 +3129,22 @@
       <c r="D70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>1669</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>3302</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>1627</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70" s="1">
         <v>0.222979291917168</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.317774997594072</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="I70" s="1">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J70" s="1">
         <v>0.229058144446009</v>
       </c>
       <c r="K70" t="s">
@@ -3197,8 +3157,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>2023</v>
       </c>
       <c r="B71" t="s">
@@ -3210,23 +3170,23 @@
       <c r="D71" t="s">
         <v>15</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>4164</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>5124</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>4066</v>
       </c>
-      <c r="H71" t="n">
-        <v>0.590805902383655</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.588492017916619</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.589531680440771</v>
+      <c r="H71" s="1">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -3238,8 +3198,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>2023</v>
       </c>
       <c r="B72" t="s">
@@ -3251,23 +3211,23 @@
       <c r="D72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>21736</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>47796</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>21024</v>
       </c>
-      <c r="H72" t="n">
-        <v>0.431560973672716</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.437053051721271</v>
+      <c r="H72" s="1">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.43705305172127101</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -3279,8 +3239,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>2023</v>
       </c>
       <c r="B73" t="s">
@@ -3292,23 +3252,23 @@
       <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>645532</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>737415</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>634123</v>
       </c>
-      <c r="H73" t="n">
-        <v>0.66408521267162</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.66388986170593</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.665371507477157</v>
+      <c r="H73" s="1">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.66537150747715701</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -3320,8 +3280,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>2023</v>
       </c>
       <c r="B74" t="s">
@@ -3333,30 +3293,27 @@
       <c r="D74" t="s">
         <v>15</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>172615</v>
       </c>
-      <c r="F74"/>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>188251</v>
       </c>
-      <c r="H74" t="n">
-        <v>0.635934938383038</v>
-      </c>
-      <c r="I74"/>
-      <c r="J74" t="n">
-        <v>0.627432224347907</v>
+      <c r="H74" s="1">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.62743222434790702</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
       </c>
-      <c r="L74"/>
       <c r="M74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>2023</v>
       </c>
       <c r="B75" t="s">
@@ -3368,23 +3325,23 @@
       <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>194351</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>47796</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>209275</v>
       </c>
-      <c r="H75" t="n">
-        <v>0.603947781392848</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.601126564753058</v>
+      <c r="H75" s="1">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.60112656475305803</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -3396,8 +3353,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>2023</v>
       </c>
       <c r="B76" t="s">
@@ -3409,23 +3366,23 @@
       <c r="D76" t="s">
         <v>15</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>386066</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>294263</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>397555</v>
       </c>
-      <c r="H76" t="n">
-        <v>0.535548218843636</v>
-      </c>
-      <c r="I76" t="n">
+      <c r="H76" s="1">
+        <v>0.53554821884363601</v>
+      </c>
+      <c r="I76" s="1">
         <v>0.504853586060652</v>
       </c>
-      <c r="J76" t="n">
-        <v>0.536815014157803</v>
+      <c r="J76" s="1">
+        <v>0.53681501415780297</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -3439,19 +3396,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3473,13 +3436,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -3492,8 +3455,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2" t="s">
@@ -3505,23 +3468,23 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>602</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1299</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.322097378277154</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.41146658219829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.248346361996392</v>
+      <c r="H2" s="1">
+        <v>0.32209737827715401</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.41146658219829002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -3533,8 +3496,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2023</v>
       </c>
       <c r="B3" t="s">
@@ -3546,23 +3509,23 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>88924</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>101569</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.574103246132789</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.584593336134405</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.572579592901879</v>
+      <c r="H3" s="1">
+        <v>0.57410324613278896</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.58459333613440501</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -3574,8 +3537,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" t="s">
@@ -3587,22 +3550,22 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12354</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>14666</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.254795198614033</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.270141830908086</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="1">
+        <v>0.25479519861403299</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.27014183090808602</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -3615,8 +3578,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2023</v>
       </c>
       <c r="B5" t="s">
@@ -3628,22 +3591,22 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>16656</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>27012</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.307414038131448</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.364613141838994</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="1">
+        <v>0.30741403813144802</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.36461314183899401</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -3656,8 +3619,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6" t="s">
@@ -3669,30 +3632,27 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>71991</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>77005</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.618086439892165</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" t="n">
+      <c r="H6" s="1">
+        <v>0.61808643989216505</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.616636904523579</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" t="s">
@@ -3704,30 +3664,27 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>12322</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>13869</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.490623133585507</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" t="n">
-        <v>0.482148444289936</v>
+      <c r="H7" s="1">
+        <v>0.49062313358550702</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.48214844428993597</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8" t="s">
@@ -3739,23 +3696,23 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>676</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1342</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>676</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.180170575692964</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.26432932834351</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.194420477423066</v>
+      <c r="H8" s="1">
+        <v>0.18017057569296399</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.26432932834350997</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.19442047742306601</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -3767,8 +3724,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2023</v>
       </c>
       <c r="B9" t="s">
@@ -3780,23 +3737,23 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2066</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2536</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2041</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.570718232044199</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.56619781201161</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.568365357839042</v>
+      <c r="H9" s="1">
+        <v>0.57071823204419903</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.56619781201161001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.56836535783904196</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -3808,8 +3765,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2023</v>
       </c>
       <c r="B10" t="s">
@@ -3821,22 +3778,22 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>10291</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21977</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>9941</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.365032633371169</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="1">
+        <v>0.36503263337116898</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.366070113418766</v>
       </c>
       <c r="K10" t="s">
@@ -3849,8 +3806,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2023</v>
       </c>
       <c r="B11" t="s">
@@ -3862,23 +3819,23 @@
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>304280</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>349803</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>300002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.619884041673288</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.620752989277995</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.619865737976234</v>
+      <c r="H11" s="1">
+        <v>0.61988404167328803</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.62075298927799505</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.61986573797623401</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -3890,8 +3847,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12" t="s">
@@ -3903,30 +3860,27 @@
       <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>84313</v>
       </c>
-      <c r="F12"/>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>90874</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.595477049770816</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12" t="n">
-        <v>0.591458176043321</v>
+      <c r="H12" s="1">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L12"/>
       <c r="M12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13" t="s">
@@ -3938,22 +3892,22 @@
       <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>94604</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>21977</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>100815</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.557211937731548</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="H13" s="1">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.557605088495575</v>
       </c>
       <c r="K13" t="s">
@@ -3966,8 +3920,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2023</v>
       </c>
       <c r="B14" t="s">
@@ -3979,23 +3933,23 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>215882</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>170401</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>220202</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.494483268855035</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.467740120283168</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.496127000148702</v>
+      <c r="H14" s="1">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -4007,8 +3961,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15" t="s">
@@ -4020,23 +3974,23 @@
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>284</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>470</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>281</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="1">
         <v>0.462540716612378</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.504291845493562</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.467554076539101</v>
+      <c r="I15" s="1">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
@@ -4048,8 +4002,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2023</v>
       </c>
       <c r="B16" t="s">
@@ -4061,22 +4015,22 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>2138</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>2957</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2046</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.688788659793814</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.700213118636041</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H16" s="1">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.682454969979987</v>
       </c>
       <c r="K16" t="s">
@@ -4089,8 +4043,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2023</v>
       </c>
       <c r="B17" t="s">
@@ -4102,23 +4056,23 @@
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>524</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>924</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>511</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.330390920554855</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.362210897687182</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.327564102564103</v>
+      <c r="H17" s="1">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
@@ -4130,8 +4084,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2023</v>
       </c>
       <c r="B18" t="s">
@@ -4143,23 +4097,23 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1600</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3559</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1577</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.40650406504065</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.493551518513382</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.404048168075839</v>
+      <c r="H18" s="1">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -4171,8 +4125,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2023</v>
       </c>
       <c r="B19" t="s">
@@ -4184,30 +4138,27 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>11483</v>
       </c>
-      <c r="F19"/>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>12622</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.715362571642163</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19" t="n">
-        <v>0.702275635675736</v>
+      <c r="H19" s="1">
+        <v>0.71536257164216299</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.70227563567573603</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L19"/>
       <c r="M19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
@@ -4219,30 +4170,27 @@
       <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1152</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>1275</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.450175849941383</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20" t="n">
-        <v>0.452127659574468</v>
+      <c r="H20" s="1">
+        <v>0.45017584994138299</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.45212765957446799</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="L20"/>
       <c r="M20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
@@ -4254,23 +4202,23 @@
       <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>77</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>444</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>77</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.239130434782609</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.581913499344692</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.239130434782609</v>
+      <c r="H21" s="1">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
@@ -4282,8 +4230,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
@@ -4295,22 +4243,22 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>419</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>520</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>419</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="1">
         <v>0.662974683544304</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.709413369713506</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I22" s="1">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.662974683544304</v>
       </c>
       <c r="K22" t="s">
@@ -4323,8 +4271,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
@@ -4336,22 +4284,22 @@
       <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1843</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3414</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1817</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="1">
         <v>0.593367675466838</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I23" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J23" s="1">
         <v>0.612403100775194</v>
       </c>
       <c r="K23" t="s">
@@ -4364,8 +4312,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
@@ -4377,22 +4325,22 @@
       <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>55521</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>62753</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>54416</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.737007685874716</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.737420385908012</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="H24" s="1">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J24" s="1">
         <v>0.740474635314609</v>
       </c>
       <c r="K24" t="s">
@@ -4405,8 +4353,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
@@ -4418,30 +4366,27 @@
       <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>12635</v>
       </c>
-      <c r="F25"/>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>13897</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.678899575519854</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25" t="n">
-        <v>0.668349925455682</v>
+      <c r="H25" s="1">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="L25"/>
       <c r="M25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
@@ -4453,23 +4398,23 @@
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>14478</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3414</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>15714</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.661363636363636</v>
+      <c r="H26" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -4481,8 +4426,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
@@ -4494,23 +4439,23 @@
       <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>19520</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>12288</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>20625</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.611701294224562</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.554362537219165</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.610640691615348</v>
+      <c r="H27" s="1">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
@@ -4522,8 +4467,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
@@ -4535,23 +4480,23 @@
       <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>976</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1606</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>929</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.696148359486448</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.665010351966874</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.688148148148148</v>
+      <c r="H28" s="1">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
@@ -4563,8 +4508,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>2023</v>
       </c>
       <c r="B29" t="s">
@@ -4576,23 +4521,23 @@
       <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>10520</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>14057</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>10168</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.65443234836703</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.676565432930644</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.659446137881834</v>
+      <c r="H29" s="1">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -4604,8 +4549,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>2023</v>
       </c>
       <c r="B30" t="s">
@@ -4617,23 +4562,23 @@
       <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>6072</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>8471</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>5883</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.333553065260382</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.371339645800456</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.334813044220591</v>
+      <c r="H30" s="1">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -4645,8 +4590,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2023</v>
       </c>
       <c r="B31" t="s">
@@ -4658,22 +4603,22 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>9666</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>16206</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>9382</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.445253120825464</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.512054093336282</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H31" s="1">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.439129417271238</v>
       </c>
       <c r="K31" t="s">
@@ -4686,8 +4631,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>2023</v>
       </c>
       <c r="B32" t="s">
@@ -4699,30 +4644,27 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>36172</v>
       </c>
-      <c r="F32"/>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>39925</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.686245494213622</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="n">
-        <v>0.676626105819747</v>
+      <c r="H32" s="1">
+        <v>0.68624549421362202</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.67662610581974703</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
       </c>
-      <c r="L32"/>
       <c r="M32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2023</v>
       </c>
       <c r="B33" t="s">
@@ -4734,30 +4676,27 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>7186</v>
       </c>
-      <c r="F33"/>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>7949</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.579656368476244</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33" t="n">
-        <v>0.546698762035763</v>
+      <c r="H33" s="1">
+        <v>0.57965636847624402</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.54669876203576295</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
       </c>
-      <c r="L33"/>
       <c r="M33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>2023</v>
       </c>
       <c r="B34" t="s">
@@ -4769,23 +4708,23 @@
       <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>891</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1303</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>849</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.355234460196292</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.307052441229656</v>
+      <c r="H34" s="1">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
@@ -4797,8 +4736,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
@@ -4810,22 +4749,22 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>847</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1025</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>774</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="1">
         <v>0.589422407794015</v>
       </c>
-      <c r="I35" t="n">
-        <v>0.617469879518072</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I35" s="1">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.577181208053691</v>
       </c>
       <c r="K35" t="s">
@@ -4838,8 +4777,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
@@ -4851,23 +4790,23 @@
       <c r="D36" t="s">
         <v>38</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>5319</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>13235</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>5117</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="1">
         <v>0.455004277159966</v>
       </c>
-      <c r="I36" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.47026927672089</v>
+      <c r="I36" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -4879,8 +4818,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
@@ -4892,23 +4831,23 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>146314</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>168085</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>143012</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.70311155962421</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.700999670529946</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.706347207199198</v>
+      <c r="H37" s="1">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -4920,8 +4859,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>2023</v>
       </c>
       <c r="B38" t="s">
@@ -4933,30 +4872,27 @@
       <c r="D38" t="s">
         <v>38</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>43358</v>
       </c>
-      <c r="F38"/>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>47874</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.665949897860445</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" t="n">
-        <v>0.650939548037963</v>
+      <c r="H38" s="1">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
-      <c r="L38"/>
       <c r="M38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2023</v>
       </c>
       <c r="B39" t="s">
@@ -4968,23 +4904,23 @@
       <c r="D39" t="s">
         <v>38</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>48677</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>13235</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>52991</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.633839863536336</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.627654660239023</v>
+      <c r="H39" s="1">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -4996,8 +4932,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>2023</v>
       </c>
       <c r="B40" t="s">
@@ -5009,23 +4945,23 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>77649</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>55903</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>80976</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.560796464011787</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.522819520041898</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.561405454873196</v>
+      <c r="H40" s="1">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -5037,8 +4973,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>2023</v>
       </c>
       <c r="B41" t="s">
@@ -5050,23 +4986,23 @@
       <c r="D41" t="s">
         <v>38</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>519</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>969</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>519</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.587768969422424</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.54994324631101</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.627569528415961</v>
+      <c r="H41" s="1">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
@@ -5078,8 +5014,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>2023</v>
       </c>
       <c r="B42" t="s">
@@ -5091,23 +5027,23 @@
       <c r="D42" t="s">
         <v>38</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>24413</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>27742</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>24214</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.777088107970461</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.777871242709735</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.77723566797201</v>
+      <c r="H42" s="1">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
@@ -5119,8 +5055,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2023</v>
       </c>
       <c r="B43" t="s">
@@ -5132,23 +5068,23 @@
       <c r="D43" t="s">
         <v>38</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>3337</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>4599</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3321</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.423208623969562</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="H43" s="1">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I43" s="1">
         <v>0.45288035450517</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.422519083969466</v>
+      <c r="J43" s="1">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -5160,8 +5096,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>2023</v>
       </c>
       <c r="B44" t="s">
@@ -5173,23 +5109,23 @@
       <c r="D44" t="s">
         <v>38</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>7297</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>11935</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>7086</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.398656031468531</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.479876160990712</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.396730306253849</v>
+      <c r="H44" s="1">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
@@ -5201,8 +5137,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>2023</v>
       </c>
       <c r="B45" t="s">
@@ -5214,30 +5150,27 @@
       <c r="D45" t="s">
         <v>38</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>28520</v>
       </c>
-      <c r="F45"/>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>31420</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.719765798505956</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45" t="n">
-        <v>0.701589853519114</v>
+      <c r="H45" s="1">
+        <v>0.71976579850595601</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.70158985351911396</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
       </c>
-      <c r="L45"/>
       <c r="M45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>2023</v>
       </c>
       <c r="B46" t="s">
@@ -5249,30 +5182,27 @@
       <c r="D46" t="s">
         <v>38</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>3789</v>
       </c>
-      <c r="F46"/>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4186</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.582564575645756</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46" t="n">
+      <c r="H46" s="1">
+        <v>0.58256457564575603</v>
+      </c>
+      <c r="J46" s="1">
         <v>0.57602862254025</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="L46"/>
       <c r="M46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
@@ -5284,23 +5214,23 @@
       <c r="D47" t="s">
         <v>38</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>25</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>213</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>25</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.043630017452007</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.241223103057758</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0463821892393321</v>
+      <c r="H47" s="1">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K47" t="s">
         <v>33</v>
@@ -5312,8 +5242,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" t="s">
@@ -5325,23 +5255,23 @@
       <c r="D48" t="s">
         <v>38</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>832</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1043</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>832</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.612214863870493</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.568392370572207</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.624156039009752</v>
+      <c r="H48" s="1">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
@@ -5353,8 +5283,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>2023</v>
       </c>
       <c r="B49" t="s">
@@ -5366,23 +5296,23 @@
       <c r="D49" t="s">
         <v>38</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>4283</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>9170</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4149</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.58050962320412</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.584366197183099</v>
+      <c r="H49" s="1">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -5394,8 +5324,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>2023</v>
       </c>
       <c r="B50" t="s">
@@ -5407,23 +5337,23 @@
       <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>139417</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>156774</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>136693</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.704952267303103</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.705052213097797</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.707879773384015</v>
+      <c r="H50" s="1">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -5435,8 +5365,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>2023</v>
       </c>
       <c r="B51" t="s">
@@ -5448,30 +5378,27 @@
       <c r="D51" t="s">
         <v>38</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>32309</v>
       </c>
-      <c r="F51"/>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>35606</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.70042056885189</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51" t="n">
-        <v>0.684059864363797</v>
+      <c r="H51" s="1">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
-      <c r="L51"/>
       <c r="M51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>2023</v>
       </c>
       <c r="B52" t="s">
@@ -5483,23 +5410,23 @@
       <c r="D52" t="s">
         <v>38</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>36592</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>9170</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>39755</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.683885919336149</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.67209345573194</v>
+      <c r="H52" s="1">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -5511,8 +5438,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>2023</v>
       </c>
       <c r="B53" t="s">
@@ -5524,23 +5451,23 @@
       <c r="D53" t="s">
         <v>38</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>73015</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>55671</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>75752</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.640898477959377</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.622237870100258</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.638045904400926</v>
+      <c r="H53" s="1">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -5552,8 +5479,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>2023</v>
       </c>
       <c r="B54" t="s">
@@ -5565,23 +5492,23 @@
       <c r="D54" t="s">
         <v>38</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>2381</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>4344</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>2142</v>
       </c>
-      <c r="H54" t="n">
-        <v>0.499370805369128</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.525526252117106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.482323800945733</v>
+      <c r="H54" s="1">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -5593,8 +5520,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>2023</v>
       </c>
       <c r="B55" t="s">
@@ -5606,23 +5533,23 @@
       <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>125995</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>146325</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>124193</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.613153143507862</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.624234771145913</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6122375536724</v>
+      <c r="H55" s="1">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
@@ -5634,8 +5561,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>2023</v>
       </c>
       <c r="B56" t="s">
@@ -5647,23 +5574,23 @@
       <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>22287</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>28660</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>21846</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" s="1">
         <v>0.292630086264624</v>
       </c>
-      <c r="I56" t="n">
-        <v>0.319125244967041</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.293278202150653</v>
+      <c r="I56" s="1">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -5675,8 +5602,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>2023</v>
       </c>
       <c r="B57" t="s">
@@ -5688,23 +5615,23 @@
       <c r="D57" t="s">
         <v>38</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>35219</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>58712</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>34406</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.358901457250586</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.426020389652795</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.355941321305166</v>
+      <c r="H57" s="1">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -5716,8 +5643,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>2023</v>
       </c>
       <c r="B58" t="s">
@@ -5729,30 +5656,27 @@
       <c r="D58" t="s">
         <v>38</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>148166</v>
       </c>
-      <c r="F58"/>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>160972</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" s="1">
         <v>0.658925553677844</v>
       </c>
-      <c r="I58"/>
-      <c r="J58" t="n">
-        <v>0.652654454634653</v>
+      <c r="J58" s="1">
+        <v>0.65265445463465299</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
-      <c r="L58"/>
       <c r="M58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>2023</v>
       </c>
       <c r="B59" t="s">
@@ -5764,30 +5688,27 @@
       <c r="D59" t="s">
         <v>38</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>24449</v>
       </c>
-      <c r="F59"/>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>27279</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59" s="1">
         <v>0.524938271604938</v>
       </c>
-      <c r="I59"/>
-      <c r="J59" t="n">
-        <v>0.510919238837279</v>
+      <c r="J59" s="1">
+        <v>0.51091923883727897</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>2023</v>
       </c>
       <c r="B60" t="s">
@@ -5799,22 +5720,22 @@
       <c r="D60" t="s">
         <v>38</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>1669</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>3302</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1627</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60" s="1">
         <v>0.222979291917168</v>
       </c>
-      <c r="I60" t="n">
-        <v>0.317774997594072</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="I60" s="1">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J60" s="1">
         <v>0.229058144446009</v>
       </c>
       <c r="K60" t="s">
@@ -5827,8 +5748,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>2023</v>
       </c>
       <c r="B61" t="s">
@@ -5840,23 +5761,23 @@
       <c r="D61" t="s">
         <v>38</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>4164</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>5124</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4066</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.590805902383655</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.588492017916619</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.589531680440771</v>
+      <c r="H61" s="1">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -5868,8 +5789,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>2023</v>
       </c>
       <c r="B62" t="s">
@@ -5881,23 +5802,23 @@
       <c r="D62" t="s">
         <v>38</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>21736</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>47796</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>21024</v>
       </c>
-      <c r="H62" t="n">
-        <v>0.431560973672716</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.437053051721271</v>
+      <c r="H62" s="1">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.43705305172127101</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -5909,8 +5830,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>2023</v>
       </c>
       <c r="B63" t="s">
@@ -5922,23 +5843,23 @@
       <c r="D63" t="s">
         <v>38</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>645532</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>737415</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>634123</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.66408521267162</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.66388986170593</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.665371507477157</v>
+      <c r="H63" s="1">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.66537150747715701</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -5950,8 +5871,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>2023</v>
       </c>
       <c r="B64" t="s">
@@ -5963,30 +5884,27 @@
       <c r="D64" t="s">
         <v>38</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>172615</v>
       </c>
-      <c r="F64"/>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>188251</v>
       </c>
-      <c r="H64" t="n">
-        <v>0.635934938383038</v>
-      </c>
-      <c r="I64"/>
-      <c r="J64" t="n">
-        <v>0.627432224347907</v>
+      <c r="H64" s="1">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.62743222434790702</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
       </c>
-      <c r="L64"/>
       <c r="M64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>2023</v>
       </c>
       <c r="B65" t="s">
@@ -5998,23 +5916,23 @@
       <c r="D65" t="s">
         <v>38</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>194351</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>47796</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>209275</v>
       </c>
-      <c r="H65" t="n">
-        <v>0.603947781392848</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.601126564753058</v>
+      <c r="H65" s="1">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.60112656475305803</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -6026,8 +5944,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>2023</v>
       </c>
       <c r="B66" t="s">
@@ -6039,23 +5957,23 @@
       <c r="D66" t="s">
         <v>38</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>386066</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>294263</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>397555</v>
       </c>
-      <c r="H66" t="n">
-        <v>0.535548218843636</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="H66" s="1">
+        <v>0.53554821884363601</v>
+      </c>
+      <c r="I66" s="1">
         <v>0.504853586060652</v>
       </c>
-      <c r="J66" t="n">
-        <v>0.536815014157803</v>
+      <c r="J66" s="1">
+        <v>0.53681501415780297</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
@@ -6069,19 +5987,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.90625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6103,13 +6027,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -6122,8 +6046,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2" t="s">
@@ -6135,23 +6059,23 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>602</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1299</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.322097378277154</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.41146658219829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.248346361996392</v>
+      <c r="H2" s="1">
+        <v>0.32209737827715401</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.41146658219829002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -6163,8 +6087,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2023</v>
       </c>
       <c r="B3" t="s">
@@ -6176,23 +6100,23 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>88924</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>101569</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.574103246132789</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.584593336134405</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.572579592901879</v>
+      <c r="H3" s="1">
+        <v>0.57410324613278896</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.58459333613440501</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -6204,8 +6128,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" t="s">
@@ -6217,22 +6141,22 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12354</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>14666</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.254795198614033</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.270141830908086</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" s="1">
+        <v>0.25479519861403299</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.27014183090808602</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -6245,8 +6169,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2023</v>
       </c>
       <c r="B5" t="s">
@@ -6258,22 +6182,22 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>16656</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>27012</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.307414038131448</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.364613141838994</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="1">
+        <v>0.30741403813144802</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.36461314183899401</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -6286,8 +6210,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6" t="s">
@@ -6299,30 +6223,27 @@
       <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>84313</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>90874</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.595477049770816</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" t="n">
-        <v>0.591458176043321</v>
+      <c r="H6" s="1">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6"/>
       <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" t="s">
@@ -6334,23 +6255,23 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>676</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1342</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>676</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.180170575692964</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.26432932834351</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.194420477423066</v>
+      <c r="H7" s="1">
+        <v>0.18017057569296399</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.26432932834350997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.19442047742306601</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -6362,8 +6283,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8" t="s">
@@ -6375,23 +6296,23 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2066</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2536</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2041</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.570718232044199</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.56619781201161</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.568365357839042</v>
+      <c r="H8" s="1">
+        <v>0.57071823204419903</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.56619781201161001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.56836535783904196</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -6403,8 +6324,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2023</v>
       </c>
       <c r="B9" t="s">
@@ -6416,22 +6337,22 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10291</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>21977</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>9941</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.365032633371169</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H9" s="1">
+        <v>0.36503263337116898</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.366070113418766</v>
       </c>
       <c r="K9" t="s">
@@ -6444,8 +6365,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2023</v>
       </c>
       <c r="B10" t="s">
@@ -6457,23 +6378,23 @@
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>304280</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>349803</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>300002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.619884041673288</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.620752989277995</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.619865737976234</v>
+      <c r="H10" s="1">
+        <v>0.61988404167328803</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.62075298927799505</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.61986573797623401</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -6485,8 +6406,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2023</v>
       </c>
       <c r="B11" t="s">
@@ -6498,30 +6419,27 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>84313</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>90874</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.595477049770816</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" t="n">
-        <v>0.591458176043321</v>
+      <c r="H11" s="1">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11"/>
       <c r="M11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12" t="s">
@@ -6533,22 +6451,22 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>94604</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>21977</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>100815</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.557211937731548</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.444186187521475</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H12" s="1">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.557605088495575</v>
       </c>
       <c r="K12" t="s">
@@ -6561,8 +6479,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13" t="s">
@@ -6574,23 +6492,23 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>215882</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>170401</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>220202</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.494483268855035</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.467740120283168</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.496127000148702</v>
+      <c r="H13" s="1">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -6602,8 +6520,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2023</v>
       </c>
       <c r="B14" t="s">
@@ -6615,23 +6533,23 @@
       <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>284</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>470</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>281</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="1">
         <v>0.462540716612378</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.504291845493562</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.467554076539101</v>
+      <c r="I14" s="1">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -6643,8 +6561,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15" t="s">
@@ -6656,22 +6574,22 @@
       <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2138</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2957</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2046</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.688788659793814</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.700213118636041</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H15" s="1">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.682454969979987</v>
       </c>
       <c r="K15" t="s">
@@ -6684,8 +6602,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2023</v>
       </c>
       <c r="B16" t="s">
@@ -6697,23 +6615,23 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>524</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>924</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>511</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.330390920554855</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.362210897687182</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.327564102564103</v>
+      <c r="H16" s="1">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -6725,8 +6643,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2023</v>
       </c>
       <c r="B17" t="s">
@@ -6738,23 +6656,23 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1600</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>3559</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1577</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.40650406504065</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.493551518513382</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.404048168075839</v>
+      <c r="H17" s="1">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -6766,8 +6684,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2023</v>
       </c>
       <c r="B18" t="s">
@@ -6779,30 +6697,27 @@
       <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>12635</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>13897</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.678899575519854</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" t="n">
-        <v>0.668349925455682</v>
+      <c r="H18" s="1">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18"/>
       <c r="M18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2023</v>
       </c>
       <c r="B19" t="s">
@@ -6814,23 +6729,23 @@
       <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>77</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>444</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>77</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.239130434782609</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.581913499344692</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.239130434782609</v>
+      <c r="H19" s="1">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
@@ -6842,8 +6757,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
@@ -6855,22 +6770,22 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>419</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>520</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>419</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="1">
         <v>0.662974683544304</v>
       </c>
-      <c r="I20" t="n">
-        <v>0.709413369713506</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I20" s="1">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J20" s="1">
         <v>0.662974683544304</v>
       </c>
       <c r="K20" t="s">
@@ -6883,8 +6798,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
@@ -6896,22 +6811,22 @@
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1843</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>3414</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1817</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="1">
         <v>0.593367675466838</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I21" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J21" s="1">
         <v>0.612403100775194</v>
       </c>
       <c r="K21" t="s">
@@ -6924,8 +6839,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
@@ -6937,22 +6852,22 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>55521</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>62753</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>54416</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.737007685874716</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.737420385908012</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H22" s="1">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.740474635314609</v>
       </c>
       <c r="K22" t="s">
@@ -6965,8 +6880,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
@@ -6978,30 +6893,27 @@
       <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>12635</v>
       </c>
-      <c r="F23"/>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>13897</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.678899575519854</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>0.668349925455682</v>
+      <c r="H23" s="1">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="L23"/>
       <c r="M23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
@@ -7013,23 +6925,23 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>14478</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>3414</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>15714</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.593429515035634</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.661363636363636</v>
+      <c r="H24" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -7041,8 +6953,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
@@ -7054,23 +6966,23 @@
       <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>19520</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>12288</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>20625</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.611701294224562</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.554362537219165</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.610640691615348</v>
+      <c r="H25" s="1">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -7082,8 +6994,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
@@ -7095,23 +7007,23 @@
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>976</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1606</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>929</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.696148359486448</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.665010351966874</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.688148148148148</v>
+      <c r="H26" s="1">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
@@ -7123,8 +7035,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
@@ -7136,23 +7048,23 @@
       <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>10520</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>14057</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>10168</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.65443234836703</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.676565432930644</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.659446137881834</v>
+      <c r="H27" s="1">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
@@ -7164,8 +7076,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
@@ -7177,23 +7089,23 @@
       <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>6072</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>8471</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>5883</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.333553065260382</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.371339645800456</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.334813044220591</v>
+      <c r="H28" s="1">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -7205,8 +7117,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>2023</v>
       </c>
       <c r="B29" t="s">
@@ -7218,22 +7130,22 @@
       <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>9666</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>16206</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>9382</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.445253120825464</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.512054093336282</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H29" s="1">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.439129417271238</v>
       </c>
       <c r="K29" t="s">
@@ -7246,8 +7158,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>2023</v>
       </c>
       <c r="B30" t="s">
@@ -7259,30 +7171,27 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>43358</v>
       </c>
-      <c r="F30"/>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>47874</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.665949897860445</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30" t="n">
-        <v>0.650939548037963</v>
+      <c r="H30" s="1">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
       </c>
-      <c r="L30"/>
       <c r="M30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>2023</v>
       </c>
       <c r="B31" t="s">
@@ -7294,23 +7203,23 @@
       <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>891</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1303</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>849</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.355234460196292</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.307052441229656</v>
+      <c r="H31" s="1">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
@@ -7322,8 +7231,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>2023</v>
       </c>
       <c r="B32" t="s">
@@ -7335,22 +7244,22 @@
       <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>847</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1025</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>774</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="1">
         <v>0.589422407794015</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.617469879518072</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="I32" s="1">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J32" s="1">
         <v>0.577181208053691</v>
       </c>
       <c r="K32" t="s">
@@ -7363,8 +7272,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2023</v>
       </c>
       <c r="B33" t="s">
@@ -7376,23 +7285,23 @@
       <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>5319</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>13235</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>5117</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="1">
         <v>0.455004277159966</v>
       </c>
-      <c r="I33" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.47026927672089</v>
+      <c r="I33" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -7404,8 +7313,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>2023</v>
       </c>
       <c r="B34" t="s">
@@ -7417,23 +7326,23 @@
       <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>146314</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>168085</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>143012</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.70311155962421</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.700999670529946</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.706347207199198</v>
+      <c r="H34" s="1">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -7445,8 +7354,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
@@ -7458,30 +7367,27 @@
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>43358</v>
       </c>
-      <c r="F35"/>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>47874</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.665949897860445</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35" t="n">
-        <v>0.650939548037963</v>
+      <c r="H35" s="1">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
-      <c r="L35"/>
       <c r="M35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
@@ -7493,23 +7399,23 @@
       <c r="D36" t="s">
         <v>40</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>48677</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>13235</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>52991</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.633839863536336</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.552724994779703</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.627654660239023</v>
+      <c r="H36" s="1">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -7521,8 +7427,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
@@ -7534,23 +7440,23 @@
       <c r="D37" t="s">
         <v>40</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>77649</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>55903</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>80976</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.560796464011787</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.522819520041898</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.561405454873196</v>
+      <c r="H37" s="1">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -7562,8 +7468,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>2023</v>
       </c>
       <c r="B38" t="s">
@@ -7575,23 +7481,23 @@
       <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>519</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>969</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>519</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.587768969422424</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.54994324631101</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.627569528415961</v>
+      <c r="H38" s="1">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
@@ -7603,8 +7509,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>2023</v>
       </c>
       <c r="B39" t="s">
@@ -7616,23 +7522,23 @@
       <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>24413</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>27742</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>24214</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.777088107970461</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.777871242709735</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.77723566797201</v>
+      <c r="H39" s="1">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -7644,8 +7550,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>2023</v>
       </c>
       <c r="B40" t="s">
@@ -7657,23 +7563,23 @@
       <c r="D40" t="s">
         <v>40</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>3337</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>4599</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3321</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.423208623969562</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H40" s="1">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I40" s="1">
         <v>0.45288035450517</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.422519083969466</v>
+      <c r="J40" s="1">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -7685,8 +7591,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>2023</v>
       </c>
       <c r="B41" t="s">
@@ -7698,23 +7604,23 @@
       <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>7297</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>11935</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>7086</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.398656031468531</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.479876160990712</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.396730306253849</v>
+      <c r="H41" s="1">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -7726,8 +7632,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>2023</v>
       </c>
       <c r="B42" t="s">
@@ -7739,30 +7645,27 @@
       <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>32309</v>
       </c>
-      <c r="F42"/>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>35606</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.70042056885189</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42" t="n">
-        <v>0.684059864363797</v>
+      <c r="H42" s="1">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
       </c>
-      <c r="L42"/>
       <c r="M42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>2023</v>
       </c>
       <c r="B43" t="s">
@@ -7774,23 +7677,23 @@
       <c r="D43" t="s">
         <v>40</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>25</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>213</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>25</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.043630017452007</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.241223103057758</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.0463821892393321</v>
+      <c r="H43" s="1">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K43" t="s">
         <v>33</v>
@@ -7802,8 +7705,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>2023</v>
       </c>
       <c r="B44" t="s">
@@ -7815,23 +7718,23 @@
       <c r="D44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>832</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1043</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>832</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.612214863870493</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.568392370572207</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.624156039009752</v>
+      <c r="H44" s="1">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K44" t="s">
         <v>16</v>
@@ -7843,8 +7746,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>2023</v>
       </c>
       <c r="B45" t="s">
@@ -7856,23 +7759,23 @@
       <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>4283</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>9170</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4149</v>
       </c>
-      <c r="H45" t="n">
-        <v>0.58050962320412</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.584366197183099</v>
+      <c r="H45" s="1">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -7884,8 +7787,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>2023</v>
       </c>
       <c r="B46" t="s">
@@ -7897,23 +7800,23 @@
       <c r="D46" t="s">
         <v>40</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>139417</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>156774</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>136693</v>
       </c>
-      <c r="H46" t="n">
-        <v>0.704952267303103</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.705052213097797</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.707879773384015</v>
+      <c r="H46" s="1">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -7925,8 +7828,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
@@ -7938,30 +7841,27 @@
       <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>32309</v>
       </c>
-      <c r="F47"/>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>35606</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.70042056885189</v>
-      </c>
-      <c r="I47"/>
-      <c r="J47" t="n">
-        <v>0.684059864363797</v>
+      <c r="H47" s="1">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
       </c>
-      <c r="L47"/>
       <c r="M47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" t="s">
@@ -7973,23 +7873,23 @@
       <c r="D48" t="s">
         <v>40</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>36592</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>9170</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>39755</v>
       </c>
-      <c r="H48" t="n">
-        <v>0.683885919336149</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.641303587663473</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.67209345573194</v>
+      <c r="H48" s="1">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -8001,8 +7901,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>2023</v>
       </c>
       <c r="B49" t="s">
@@ -8014,23 +7914,23 @@
       <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>73015</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>55671</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>75752</v>
       </c>
-      <c r="H49" t="n">
-        <v>0.640898477959377</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.622237870100258</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.638045904400926</v>
+      <c r="H49" s="1">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -8042,8 +7942,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>2023</v>
       </c>
       <c r="B50" t="s">
@@ -8055,23 +7955,23 @@
       <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>2381</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>4344</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>2142</v>
       </c>
-      <c r="H50" t="n">
-        <v>0.499370805369128</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.525526252117106</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.482323800945733</v>
+      <c r="H50" s="1">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -8083,8 +7983,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>2023</v>
       </c>
       <c r="B51" t="s">
@@ -8096,23 +7996,23 @@
       <c r="D51" t="s">
         <v>40</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>125995</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>146325</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>124193</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.613153143507862</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.624234771145913</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6122375536724</v>
+      <c r="H51" s="1">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -8124,8 +8024,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>2023</v>
       </c>
       <c r="B52" t="s">
@@ -8137,23 +8037,23 @@
       <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>22287</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>28660</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>21846</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52" s="1">
         <v>0.292630086264624</v>
       </c>
-      <c r="I52" t="n">
-        <v>0.319125244967041</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.293278202150653</v>
+      <c r="I52" s="1">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -8165,8 +8065,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>2023</v>
       </c>
       <c r="B53" t="s">
@@ -8178,23 +8078,23 @@
       <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>35219</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>58712</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>34406</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.358901457250586</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.426020389652795</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.355941321305166</v>
+      <c r="H53" s="1">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -8206,8 +8106,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>2023</v>
       </c>
       <c r="B54" t="s">
@@ -8219,30 +8119,27 @@
       <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>172615</v>
       </c>
-      <c r="F54"/>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>188251</v>
       </c>
-      <c r="H54" t="n">
-        <v>0.635934938383038</v>
-      </c>
-      <c r="I54"/>
-      <c r="J54" t="n">
-        <v>0.627432224347907</v>
+      <c r="H54" s="1">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.62743222434790702</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
       </c>
-      <c r="L54"/>
       <c r="M54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>2023</v>
       </c>
       <c r="B55" t="s">
@@ -8254,22 +8151,22 @@
       <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>1669</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>3302</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1627</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55" s="1">
         <v>0.222979291917168</v>
       </c>
-      <c r="I55" t="n">
-        <v>0.317774997594072</v>
-      </c>
-      <c r="J55" t="n">
+      <c r="I55" s="1">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J55" s="1">
         <v>0.229058144446009</v>
       </c>
       <c r="K55" t="s">
@@ -8282,8 +8179,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>2023</v>
       </c>
       <c r="B56" t="s">
@@ -8295,23 +8192,23 @@
       <c r="D56" t="s">
         <v>40</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>4164</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>5124</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>4066</v>
       </c>
-      <c r="H56" t="n">
-        <v>0.590805902383655</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.588492017916619</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.589531680440771</v>
+      <c r="H56" s="1">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -8323,8 +8220,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>2023</v>
       </c>
       <c r="B57" t="s">
@@ -8336,23 +8233,23 @@
       <c r="D57" t="s">
         <v>40</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>21736</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>47796</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>21024</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.431560973672716</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.437053051721271</v>
+      <c r="H57" s="1">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.43705305172127101</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -8364,8 +8261,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>2023</v>
       </c>
       <c r="B58" t="s">
@@ -8377,23 +8274,23 @@
       <c r="D58" t="s">
         <v>40</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>645532</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>737415</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>634123</v>
       </c>
-      <c r="H58" t="n">
-        <v>0.66408521267162</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.66388986170593</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.665371507477157</v>
+      <c r="H58" s="1">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.66537150747715701</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -8405,8 +8302,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>2023</v>
       </c>
       <c r="B59" t="s">
@@ -8418,30 +8315,27 @@
       <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>172615</v>
       </c>
-      <c r="F59"/>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>188251</v>
       </c>
-      <c r="H59" t="n">
-        <v>0.635934938383038</v>
-      </c>
-      <c r="I59"/>
-      <c r="J59" t="n">
-        <v>0.627432224347907</v>
+      <c r="H59" s="1">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.62743222434790702</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>2023</v>
       </c>
       <c r="B60" t="s">
@@ -8453,23 +8347,23 @@
       <c r="D60" t="s">
         <v>40</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>194351</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>47796</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>209275</v>
       </c>
-      <c r="H60" t="n">
-        <v>0.603947781392848</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.511329353617049</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.601126564753058</v>
+      <c r="H60" s="1">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.60112656475305803</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -8481,8 +8375,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>2023</v>
       </c>
       <c r="B61" t="s">
@@ -8494,23 +8388,23 @@
       <c r="D61" t="s">
         <v>40</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>386066</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>294263</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>397555</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.535548218843636</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="H61" s="1">
+        <v>0.53554821884363601</v>
+      </c>
+      <c r="I61" s="1">
         <v>0.504853586060652</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.536815014157803</v>
+      <c r="J61" s="1">
+        <v>0.53681501415780297</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -8524,6 +8418,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/ownership-rate/data/ownership_rate-by-re.xlsx
+++ b/ownership-rate/data/ownership_rate-by-re.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclute\GitHub\exploration-race-ethnicity\ownership-rate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7015E3EF-940F-494F-BEE7-A1E9397A2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A5F7C-FBB2-43C1-AF7A-5B78BD63C370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="43">
   <si>
     <t>DATA_YEAR</t>
   </si>
@@ -111,6 +111,9 @@
     <t>White alone</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Total Multirace</t>
   </si>
   <si>
@@ -154,14 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,17 +183,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,16 +484,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.90625" style="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -525,13 +528,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -566,13 +569,13 @@
       <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>0.32209737827715401</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.41146658219829002</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
@@ -607,13 +610,13 @@
       <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>0.57410324613278896</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>0.58459333613440501</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
@@ -648,13 +651,13 @@
       <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.25479519861403299</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.27014183090808602</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -689,13 +692,13 @@
       <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.30741403813144802</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.36461314183899401</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -727,10 +730,10 @@
       <c r="G6">
         <v>8749</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0.566467154363408</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>0.58109723698193405</v>
       </c>
       <c r="K6" t="s">
@@ -759,10 +762,10 @@
       <c r="G7">
         <v>27538</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.68079851297328997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>0.68427591690686795</v>
       </c>
       <c r="K7" t="s">
@@ -791,10 +794,10 @@
       <c r="G8">
         <v>49467</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>0.58618411678605198</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0.58447450818219404</v>
       </c>
       <c r="K8" t="s">
@@ -823,10 +826,10 @@
       <c r="G9">
         <v>5120</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0.40200310827145602</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>0.37347727770077999</v>
       </c>
       <c r="K9" t="s">
@@ -858,13 +861,13 @@
       <c r="G10">
         <v>676</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>0.18017057569296399</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.26432932834350997</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>0.19442047742306601</v>
       </c>
       <c r="K10" t="s">
@@ -899,13 +902,13 @@
       <c r="G11">
         <v>2041</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.57071823204419903</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.56619781201161001</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>0.56836535783904196</v>
       </c>
       <c r="K11" t="s">
@@ -940,13 +943,13 @@
       <c r="G12">
         <v>9941</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>0.36503263337116898</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.44418618752147498</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>0.366070113418766</v>
       </c>
       <c r="K12" t="s">
@@ -981,13 +984,13 @@
       <c r="G13">
         <v>300002</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.61988404167328803</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0.62075298927799505</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>0.61986573797623401</v>
       </c>
       <c r="K13" t="s">
@@ -1014,18 +1017,27 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>84313</v>
+        <v>520162</v>
+      </c>
+      <c r="F14">
+        <v>520204</v>
       </c>
       <c r="G14">
-        <v>90874</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.59547704977081595</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.59145817604332096</v>
+        <v>520204</v>
+      </c>
+      <c r="H14">
+        <v>0.56085361212015294</v>
+      </c>
+      <c r="I14">
+        <v>0.560672802189215</v>
+      </c>
+      <c r="J14">
+        <v>0.560672802189215</v>
       </c>
       <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
@@ -1046,27 +1058,18 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>94604</v>
-      </c>
-      <c r="F15">
-        <v>21977</v>
+        <v>84313</v>
       </c>
       <c r="G15">
-        <v>100815</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.55721193773154798</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.44418618752147498</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.557605088495575</v>
+        <v>90874</v>
+      </c>
+      <c r="H15">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J15">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
@@ -1087,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>215882</v>
+        <v>94604</v>
       </c>
       <c r="F16">
-        <v>170401</v>
+        <v>21977</v>
       </c>
       <c r="G16">
-        <v>220202</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.49448326885503502</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.46774012028316803</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.49612700014870198</v>
+        <v>100815</v>
+      </c>
+      <c r="H16">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I16">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J16">
+        <v>0.557605088495575</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1119,40 +1122,40 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17">
-        <v>284</v>
+        <v>215882</v>
       </c>
       <c r="F17">
-        <v>470</v>
+        <v>170401</v>
       </c>
       <c r="G17">
-        <v>281</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.462540716612378</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.50429184549356199</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.46755407653910103</v>
+        <v>220202</v>
+      </c>
+      <c r="H17">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I17">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J17">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1160,40 +1163,40 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>2138</v>
+        <v>284</v>
       </c>
       <c r="F18">
-        <v>2957</v>
+        <v>470</v>
       </c>
       <c r="G18">
-        <v>2046</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.68878865979381398</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.70021311863604097</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.682454969979987</v>
+        <v>281</v>
+      </c>
+      <c r="H18">
+        <v>0.462540716612378</v>
+      </c>
+      <c r="I18">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J18">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1201,40 +1204,40 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19">
-        <v>524</v>
+        <v>2138</v>
       </c>
       <c r="F19">
-        <v>924</v>
+        <v>2957</v>
       </c>
       <c r="G19">
-        <v>511</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.33039092055485503</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.36221089768718201</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.32756410256410301</v>
+        <v>2046</v>
+      </c>
+      <c r="H19">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I19">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J19">
+        <v>0.682454969979987</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1242,40 +1245,40 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20">
-        <v>1600</v>
+        <v>524</v>
       </c>
       <c r="F20">
-        <v>3559</v>
+        <v>924</v>
       </c>
       <c r="G20">
-        <v>1577</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.40650406504065001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.49355151851338203</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.40404816807583899</v>
+        <v>511</v>
+      </c>
+      <c r="H20">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I20">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J20">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1283,31 +1286,40 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>504</v>
+        <v>1600</v>
+      </c>
+      <c r="F21">
+        <v>3559</v>
       </c>
       <c r="G21">
-        <v>618</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.60943168077388199</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.64712041884816796</v>
+        <v>1577</v>
+      </c>
+      <c r="H21">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I21">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J21">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1315,31 +1327,31 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>2968</v>
+        <v>504</v>
       </c>
       <c r="G22">
-        <v>3027</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.83488045007032397</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.83757609297177604</v>
+        <v>618</v>
+      </c>
+      <c r="H22">
+        <v>0.60943168077388199</v>
+      </c>
+      <c r="J22">
+        <v>0.64712041884816796</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1347,25 +1359,25 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23">
-        <v>8515</v>
+        <v>2968</v>
       </c>
       <c r="G23">
-        <v>9595</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.68136352724653904</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.66822202103210504</v>
+        <v>3027</v>
+      </c>
+      <c r="H23">
+        <v>0.83488045007032397</v>
+      </c>
+      <c r="J23">
+        <v>0.83757609297177604</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
@@ -1379,31 +1391,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>648</v>
+        <v>8515</v>
       </c>
       <c r="G24">
-        <v>657</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.37413394919168602</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.35227882037533498</v>
+        <v>9595</v>
+      </c>
+      <c r="H24">
+        <v>0.68136352724653904</v>
+      </c>
+      <c r="J24">
+        <v>0.66822202103210504</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1411,40 +1423,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>77</v>
-      </c>
-      <c r="F25">
-        <v>444</v>
+        <v>648</v>
       </c>
       <c r="G25">
-        <v>77</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.23913043478260901</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.58191349934469205</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.23913043478260901</v>
+        <v>657</v>
+      </c>
+      <c r="H25">
+        <v>0.37413394919168602</v>
+      </c>
+      <c r="J25">
+        <v>0.35227882037533498</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1452,31 +1455,31 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="F26">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="G26">
-        <v>419</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.662974683544304</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.70941336971350599</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.662974683544304</v>
+        <v>77</v>
+      </c>
+      <c r="H26">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I26">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J26">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K26" t="s">
         <v>34</v>
@@ -1493,40 +1496,40 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>1843</v>
+        <v>419</v>
       </c>
       <c r="F27">
-        <v>3414</v>
+        <v>520</v>
       </c>
       <c r="G27">
-        <v>1817</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.593367675466838</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.612403100775194</v>
+        <v>419</v>
+      </c>
+      <c r="H27">
+        <v>0.662974683544304</v>
+      </c>
+      <c r="I27">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J27">
+        <v>0.662974683544304</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -1534,31 +1537,31 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>55521</v>
+        <v>1843</v>
       </c>
       <c r="F28">
-        <v>62753</v>
+        <v>3414</v>
       </c>
       <c r="G28">
-        <v>54416</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.73700768587471599</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.73742038590801195</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.740474635314609</v>
+        <v>1817</v>
+      </c>
+      <c r="H28">
+        <v>0.593367675466838</v>
+      </c>
+      <c r="I28">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J28">
+        <v>0.612403100775194</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -1575,27 +1578,36 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>12635</v>
+        <v>55521</v>
+      </c>
+      <c r="F29">
+        <v>62753</v>
       </c>
       <c r="G29">
-        <v>13897</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.67889957551985403</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.66834992545568195</v>
+        <v>54416</v>
+      </c>
+      <c r="H29">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I29">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J29">
+        <v>0.740474635314609</v>
       </c>
       <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
@@ -1607,31 +1619,31 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30">
-        <v>14478</v>
+        <v>75041</v>
       </c>
       <c r="F30">
-        <v>3414</v>
+        <v>75041</v>
       </c>
       <c r="G30">
-        <v>15714</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.66136363636363604</v>
+        <v>75041</v>
+      </c>
+      <c r="H30">
+        <v>0.69972212897691199</v>
+      </c>
+      <c r="I30">
+        <v>0.69959166169451104</v>
+      </c>
+      <c r="J30">
+        <v>0.69959166169451104</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -1648,36 +1660,27 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>19520</v>
-      </c>
-      <c r="F31">
-        <v>12288</v>
+        <v>12635</v>
       </c>
       <c r="G31">
-        <v>20625</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.61170129422456199</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.55436253721916495</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.61064069161534795</v>
+        <v>13897</v>
+      </c>
+      <c r="H31">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J31">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
@@ -1689,40 +1692,40 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>976</v>
+        <v>14478</v>
       </c>
       <c r="F32">
-        <v>1606</v>
+        <v>3414</v>
       </c>
       <c r="G32">
-        <v>929</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.69614835948644804</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.66501035196687397</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.68814814814814795</v>
+        <v>15714</v>
+      </c>
+      <c r="H32">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I32">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J32">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -1730,31 +1733,31 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10520</v>
+        <v>19520</v>
       </c>
       <c r="F33">
-        <v>14057</v>
+        <v>12288</v>
       </c>
       <c r="G33">
-        <v>10168</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.65443234836703001</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.67656543293064397</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.65944613788183404</v>
+        <v>20625</v>
+      </c>
+      <c r="H33">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I33">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J33">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -1771,40 +1774,40 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>6072</v>
+        <v>976</v>
       </c>
       <c r="F34">
-        <v>8471</v>
+        <v>1606</v>
       </c>
       <c r="G34">
-        <v>5883</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.33355306526038198</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.37133964580045598</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.33481304422059099</v>
+        <v>929</v>
+      </c>
+      <c r="H34">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I34">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J34">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -1812,31 +1815,31 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35">
-        <v>9666</v>
+        <v>10520</v>
       </c>
       <c r="F35">
-        <v>16206</v>
+        <v>14057</v>
       </c>
       <c r="G35">
-        <v>9382</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.44525312082546398</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.51205409333628205</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.439129417271238</v>
+        <v>10168</v>
+      </c>
+      <c r="H35">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I35">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J35">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -1853,27 +1856,36 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>3370</v>
+        <v>6072</v>
+      </c>
+      <c r="F36">
+        <v>8471</v>
       </c>
       <c r="G36">
-        <v>3615</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.64509954058192998</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.62209602478058901</v>
+        <v>5883</v>
+      </c>
+      <c r="H36">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I36">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J36">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
@@ -1885,27 +1897,36 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37">
-        <v>7363</v>
+        <v>9666</v>
+      </c>
+      <c r="F37">
+        <v>16206</v>
       </c>
       <c r="G37">
-        <v>7728</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.75875927452596903</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.76499703029103105</v>
+        <v>9382</v>
+      </c>
+      <c r="H37">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I37">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J37">
+        <v>0.439129417271238</v>
       </c>
       <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
@@ -1917,25 +1938,25 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>28809</v>
+        <v>3370</v>
       </c>
       <c r="G38">
-        <v>32197</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.66988327210156695</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.65837150335350902</v>
+        <v>3615</v>
+      </c>
+      <c r="H38">
+        <v>0.64509954058192998</v>
+      </c>
+      <c r="J38">
+        <v>0.62209602478058901</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
@@ -1949,25 +1970,25 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39">
-        <v>3816</v>
+        <v>7363</v>
       </c>
       <c r="G39">
-        <v>4334</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.53199498117942301</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.49650589987398303</v>
+        <v>7728</v>
+      </c>
+      <c r="H39">
+        <v>0.75875927452596903</v>
+      </c>
+      <c r="J39">
+        <v>0.76499703029103105</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -1981,40 +2002,31 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>891</v>
-      </c>
-      <c r="F40">
-        <v>1303</v>
+        <v>28809</v>
       </c>
       <c r="G40">
-        <v>849</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.31395348837209303</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.35523446019629201</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.30705244122965603</v>
+        <v>32197</v>
+      </c>
+      <c r="H40">
+        <v>0.66988327210156695</v>
+      </c>
+      <c r="J40">
+        <v>0.65837150335350902</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -2022,40 +2034,31 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>847</v>
-      </c>
-      <c r="F41">
-        <v>1025</v>
+        <v>3816</v>
       </c>
       <c r="G41">
-        <v>774</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.589422407794015</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.61746987951807197</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.577181208053691</v>
+        <v>4334</v>
+      </c>
+      <c r="H41">
+        <v>0.53199498117942301</v>
+      </c>
+      <c r="J41">
+        <v>0.49650589987398303</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2063,40 +2066,40 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>5319</v>
+        <v>891</v>
       </c>
       <c r="F42">
-        <v>13235</v>
+        <v>1303</v>
       </c>
       <c r="G42">
-        <v>5117</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.455004277159966</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.47026927672088997</v>
+        <v>849</v>
+      </c>
+      <c r="H42">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I42">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J42">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -2104,40 +2107,40 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>146314</v>
+        <v>847</v>
       </c>
       <c r="F43">
-        <v>168085</v>
+        <v>1025</v>
       </c>
       <c r="G43">
-        <v>143012</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.70311155962421001</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.70099967052994605</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.70634720719919797</v>
+        <v>774</v>
+      </c>
+      <c r="H43">
+        <v>0.589422407794015</v>
+      </c>
+      <c r="I43">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J43">
+        <v>0.577181208053691</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -2145,27 +2148,36 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44">
-        <v>43358</v>
+        <v>5319</v>
+      </c>
+      <c r="F44">
+        <v>13235</v>
       </c>
       <c r="G44">
-        <v>47874</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.66594989786044501</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.65093954803796295</v>
+        <v>5117</v>
+      </c>
+      <c r="H44">
+        <v>0.455004277159966</v>
+      </c>
+      <c r="I44">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J44">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
@@ -2177,31 +2189,31 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>48677</v>
+        <v>146314</v>
       </c>
       <c r="F45">
-        <v>13235</v>
+        <v>168085</v>
       </c>
       <c r="G45">
-        <v>52991</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.63383986353633603</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.62765466023902305</v>
+        <v>143012</v>
+      </c>
+      <c r="H45">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I45">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J45">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2218,31 +2230,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46">
-        <v>77649</v>
+        <v>223963</v>
       </c>
       <c r="F46">
-        <v>55903</v>
+        <v>223988</v>
       </c>
       <c r="G46">
-        <v>80976</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.56079646401178695</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.52281952004189802</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.56140545487319604</v>
+        <v>223988</v>
+      </c>
+      <c r="H46">
+        <v>0.64625155457832295</v>
+      </c>
+      <c r="I46">
+        <v>0.64604779279214297</v>
+      </c>
+      <c r="J46">
+        <v>0.64604779279214297</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2262,37 +2274,28 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47">
-        <v>519</v>
-      </c>
-      <c r="F47">
-        <v>969</v>
+        <v>43358</v>
       </c>
       <c r="G47">
-        <v>519</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.58776896942242396</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.54994324631100999</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.62756952841596103</v>
+        <v>47874</v>
+      </c>
+      <c r="H47">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J47">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2303,28 +2306,28 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>24413</v>
+        <v>48677</v>
       </c>
       <c r="F48">
-        <v>27742</v>
+        <v>13235</v>
       </c>
       <c r="G48">
-        <v>24214</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.77708810797046102</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.77787124270973496</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.77723566797201005</v>
+        <v>52991</v>
+      </c>
+      <c r="H48">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I48">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J48">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -2344,28 +2347,28 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>3337</v>
+        <v>77649</v>
       </c>
       <c r="F49">
-        <v>4599</v>
+        <v>55903</v>
       </c>
       <c r="G49">
-        <v>3321</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.42320862396956199</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.45288035450517</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.42251908396946602</v>
+        <v>80976</v>
+      </c>
+      <c r="H49">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I49">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J49">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -2382,40 +2385,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50">
-        <v>7297</v>
+        <v>519</v>
       </c>
       <c r="F50">
-        <v>11935</v>
+        <v>969</v>
       </c>
       <c r="G50">
-        <v>7086</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.39865603146853101</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.47987616099071201</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.39673030625384897</v>
+        <v>519</v>
+      </c>
+      <c r="H50">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I50">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J50">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -2423,27 +2426,36 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>2432</v>
+        <v>24413</v>
+      </c>
+      <c r="F51">
+        <v>27742</v>
       </c>
       <c r="G51">
-        <v>2614</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.68797736916548802</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.691534391534392</v>
+        <v>24214</v>
+      </c>
+      <c r="H51">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I51">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J51">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
@@ -2455,27 +2467,36 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52">
-        <v>7353</v>
+        <v>3337</v>
+      </c>
+      <c r="F52">
+        <v>4599</v>
       </c>
       <c r="G52">
-        <v>7883</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.82073892175466001</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.82346181970124299</v>
+        <v>3321</v>
+      </c>
+      <c r="H52">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I52">
+        <v>0.45288035450517</v>
+      </c>
+      <c r="J52">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
@@ -2487,27 +2508,36 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>21167</v>
+        <v>7297</v>
+      </c>
+      <c r="F53">
+        <v>11935</v>
       </c>
       <c r="G53">
-        <v>23537</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.69026577531387601</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.66845588026469005</v>
+        <v>7086</v>
+      </c>
+      <c r="H53">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I53">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J53">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
@@ -2519,25 +2549,25 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>1357</v>
+        <v>2432</v>
       </c>
       <c r="G54">
-        <v>1572</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.457056247894914</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.45081732147978198</v>
+        <v>2614</v>
+      </c>
+      <c r="H54">
+        <v>0.68797736916548802</v>
+      </c>
+      <c r="J54">
+        <v>0.691534391534392</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -2551,40 +2581,31 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55">
-        <v>25</v>
-      </c>
-      <c r="F55">
-        <v>213</v>
+        <v>7353</v>
       </c>
       <c r="G55">
-        <v>25</v>
-      </c>
-      <c r="H55" s="1">
-        <v>4.3630017452007001E-2</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.24122310305775799</v>
-      </c>
-      <c r="J55" s="1">
-        <v>4.63821892393321E-2</v>
+        <v>7883</v>
+      </c>
+      <c r="H55">
+        <v>0.82073892175466001</v>
+      </c>
+      <c r="J55">
+        <v>0.82346181970124299</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -2592,40 +2613,31 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56">
-        <v>832</v>
-      </c>
-      <c r="F56">
-        <v>1043</v>
+        <v>21167</v>
       </c>
       <c r="G56">
-        <v>832</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.61221486387049295</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.56839237057220704</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.62415603900975203</v>
+        <v>23537</v>
+      </c>
+      <c r="H56">
+        <v>0.69026577531387601</v>
+      </c>
+      <c r="J56">
+        <v>0.66845588026469005</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -2633,36 +2645,27 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>4283</v>
-      </c>
-      <c r="F57">
-        <v>9170</v>
+        <v>1357</v>
       </c>
       <c r="G57">
-        <v>4149</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.58050962320412003</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.64130358766347295</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.58436619718309901</v>
+        <v>1572</v>
+      </c>
+      <c r="H57">
+        <v>0.457056247894914</v>
+      </c>
+      <c r="J57">
+        <v>0.45081732147978198</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" t="s">
         <v>17</v>
       </c>
       <c r="M57" t="s">
@@ -2674,40 +2677,40 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58">
-        <v>139417</v>
+        <v>25</v>
       </c>
       <c r="F58">
-        <v>156774</v>
+        <v>213</v>
       </c>
       <c r="G58">
-        <v>136693</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.70495226730310301</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.70505221309779698</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.70787977338401498</v>
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J58">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -2715,31 +2718,40 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59">
-        <v>32309</v>
+        <v>832</v>
+      </c>
+      <c r="F59">
+        <v>1043</v>
       </c>
       <c r="G59">
-        <v>35606</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.70042056885188997</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.68405986436379695</v>
+        <v>832</v>
+      </c>
+      <c r="H59">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I59">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J59">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -2747,31 +2759,31 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60">
-        <v>36592</v>
+        <v>4283</v>
       </c>
       <c r="F60">
         <v>9170</v>
       </c>
       <c r="G60">
-        <v>39755</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.68388591933614895</v>
-      </c>
-      <c r="I60" s="1">
+        <v>4149</v>
+      </c>
+      <c r="H60">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I60">
         <v>0.64130358766347295</v>
       </c>
-      <c r="J60" s="1">
-        <v>0.67209345573194001</v>
+      <c r="J60">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -2788,31 +2800,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61">
-        <v>73015</v>
+        <v>139417</v>
       </c>
       <c r="F61">
-        <v>55671</v>
+        <v>156774</v>
       </c>
       <c r="G61">
-        <v>75752</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.64089847795937704</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.62223787010025799</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0.63804590440092601</v>
+        <v>136693</v>
+      </c>
+      <c r="H61">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I61">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J61">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -2832,28 +2844,28 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>2381</v>
+        <v>212432</v>
       </c>
       <c r="F62">
-        <v>4344</v>
+        <v>212445</v>
       </c>
       <c r="G62">
-        <v>2142</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.49937080536912798</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.52552625211710602</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0.48232380094573302</v>
+        <v>212445</v>
+      </c>
+      <c r="H62">
+        <v>0.68154022855749596</v>
+      </c>
+      <c r="I62">
+        <v>0.681291228790323</v>
+      </c>
+      <c r="J62">
+        <v>0.681291228790323</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -2873,33 +2885,24 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>125995</v>
-      </c>
-      <c r="F63">
-        <v>146325</v>
+        <v>32309</v>
       </c>
       <c r="G63">
-        <v>124193</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.61315314350786199</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.62423477114591297</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0.61223755367239996</v>
+        <v>35606</v>
+      </c>
+      <c r="H63">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J63">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
@@ -2914,28 +2917,28 @@
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64">
-        <v>22287</v>
+        <v>36592</v>
       </c>
       <c r="F64">
-        <v>28660</v>
+        <v>9170</v>
       </c>
       <c r="G64">
-        <v>21846</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.292630086264624</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.31912524496704098</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0.29327820215065298</v>
+        <v>39755</v>
+      </c>
+      <c r="H64">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I64">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J64">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -2955,28 +2958,28 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65">
-        <v>35219</v>
+        <v>73015</v>
       </c>
       <c r="F65">
-        <v>58712</v>
+        <v>55671</v>
       </c>
       <c r="G65">
-        <v>34406</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.35890145725058598</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.42602038965279498</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.35594132130516598</v>
+        <v>75752</v>
+      </c>
+      <c r="H65">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I65">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J65">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -2993,27 +2996,36 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66">
-        <v>13972</v>
+        <v>2381</v>
+      </c>
+      <c r="F66">
+        <v>4344</v>
       </c>
       <c r="G66">
-        <v>15596</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.60435139928197601</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.60917115850324199</v>
+        <v>2142</v>
+      </c>
+      <c r="H66">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I66">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J66">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
@@ -3025,27 +3037,36 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67">
-        <v>44421</v>
+        <v>125995</v>
+      </c>
+      <c r="F67">
+        <v>146325</v>
       </c>
       <c r="G67">
-        <v>46176</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.72239839976581899</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0.72680339351203305</v>
+        <v>124193</v>
+      </c>
+      <c r="H67">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I67">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J67">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
@@ -3057,27 +3078,36 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68">
-        <v>103745</v>
+        <v>22287</v>
+      </c>
+      <c r="F68">
+        <v>28660</v>
       </c>
       <c r="G68">
-        <v>114796</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.63503479852358802</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.62692713083463902</v>
+        <v>21846</v>
+      </c>
+      <c r="H68">
+        <v>0.292630086264624</v>
+      </c>
+      <c r="I68">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J68">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
@@ -3089,27 +3119,36 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10477</v>
+        <v>35219</v>
+      </c>
+      <c r="F69">
+        <v>58712</v>
       </c>
       <c r="G69">
-        <v>11683</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.44666609822646702</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0.420403022670025</v>
+        <v>34406</v>
+      </c>
+      <c r="H69">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I69">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J69">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
@@ -3121,36 +3160,27 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70">
-        <v>1669</v>
-      </c>
-      <c r="F70">
-        <v>3302</v>
+        <v>13972</v>
       </c>
       <c r="G70">
-        <v>1627</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0.222979291917168</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0.31777499759407202</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0.229058144446009</v>
+        <v>15596</v>
+      </c>
+      <c r="H70">
+        <v>0.60435139928197601</v>
+      </c>
+      <c r="J70">
+        <v>0.60917115850324199</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" t="s">
         <v>17</v>
       </c>
       <c r="M70" t="s">
@@ -3162,36 +3192,27 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71">
-        <v>4164</v>
-      </c>
-      <c r="F71">
-        <v>5124</v>
+        <v>44421</v>
       </c>
       <c r="G71">
-        <v>4066</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.59080590238365505</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0.58849201791661898</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0.58953168044077098</v>
+        <v>46176</v>
+      </c>
+      <c r="H71">
+        <v>0.72239839976581899</v>
+      </c>
+      <c r="J71">
+        <v>0.72680339351203305</v>
       </c>
       <c r="K71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
@@ -3203,36 +3224,27 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72">
-        <v>21736</v>
-      </c>
-      <c r="F72">
-        <v>47796</v>
+        <v>103745</v>
       </c>
       <c r="G72">
-        <v>21024</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0.43156097367271601</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0.43705305172127101</v>
+        <v>114796</v>
+      </c>
+      <c r="H72">
+        <v>0.63503479852358802</v>
+      </c>
+      <c r="J72">
+        <v>0.62692713083463902</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
-      </c>
-      <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
@@ -3244,36 +3256,27 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73">
-        <v>645532</v>
-      </c>
-      <c r="F73">
-        <v>737415</v>
+        <v>10477</v>
       </c>
       <c r="G73">
-        <v>634123</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.66408521267162002</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0.66388986170593001</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0.66537150747715701</v>
+        <v>11683</v>
+      </c>
+      <c r="H73">
+        <v>0.44666609822646702</v>
+      </c>
+      <c r="J73">
+        <v>0.420403022670025</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
-      </c>
-      <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
@@ -3285,27 +3288,36 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74">
-        <v>172615</v>
+        <v>1669</v>
+      </c>
+      <c r="F74">
+        <v>3302</v>
       </c>
       <c r="G74">
-        <v>188251</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0.63593493838303805</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0.62743222434790702</v>
+        <v>1627</v>
+      </c>
+      <c r="H74">
+        <v>0.222979291917168</v>
+      </c>
+      <c r="I74">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J74">
+        <v>0.229058144446009</v>
       </c>
       <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
@@ -3317,31 +3329,31 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75">
-        <v>194351</v>
+        <v>4164</v>
       </c>
       <c r="F75">
-        <v>47796</v>
+        <v>5124</v>
       </c>
       <c r="G75">
-        <v>209275</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.60394778139284799</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0.60112656475305803</v>
+        <v>4066</v>
+      </c>
+      <c r="H75">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I75">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J75">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -3358,39 +3370,235 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76">
+        <v>21736</v>
+      </c>
+      <c r="F76">
+        <v>47796</v>
+      </c>
+      <c r="G76">
+        <v>21024</v>
+      </c>
+      <c r="H76">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I76">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J76">
+        <v>0.43705305172127101</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2023</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>645532</v>
+      </c>
+      <c r="F77">
+        <v>737415</v>
+      </c>
+      <c r="G77">
+        <v>634123</v>
+      </c>
+      <c r="H77">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I77">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J77">
+        <v>0.66537150747715701</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2023</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>1031598</v>
+      </c>
+      <c r="F78">
+        <v>1031678</v>
+      </c>
+      <c r="G78">
+        <v>1031678</v>
+      </c>
+      <c r="H78">
+        <v>0.60935224006492805</v>
+      </c>
+      <c r="I78">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="J78">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2023</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>172615</v>
+      </c>
+      <c r="G79">
+        <v>188251</v>
+      </c>
+      <c r="H79">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J79">
+        <v>0.62743222434790702</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2023</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>194351</v>
+      </c>
+      <c r="F80">
+        <v>47796</v>
+      </c>
+      <c r="G80">
+        <v>209275</v>
+      </c>
+      <c r="H80">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I80">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J80">
+        <v>0.60112656475305803</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2023</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81">
         <v>386066</v>
       </c>
-      <c r="F76">
+      <c r="F81">
         <v>294263</v>
       </c>
-      <c r="G76">
+      <c r="G81">
         <v>397555</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H81">
         <v>0.53554821884363601</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I81">
         <v>0.504853586060652</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J81">
         <v>0.53681501415780297</v>
       </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" t="s">
-        <v>17</v>
-      </c>
-      <c r="M76" t="s">
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3402,16 +3610,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.90625" style="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -3436,13 +3654,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -3466,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>602</v>
@@ -3477,13 +3695,13 @@
       <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>0.32209737827715401</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.41146658219829002</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
@@ -3507,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>88924</v>
@@ -3518,13 +3736,13 @@
       <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>0.57410324613278896</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>0.58459333613440501</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
@@ -3548,7 +3766,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>12354</v>
@@ -3559,13 +3777,13 @@
       <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.25479519861403299</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.27014183090808602</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -3589,7 +3807,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>16656</v>
@@ -3600,13 +3818,13 @@
       <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.30741403813144802</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.36461314183899401</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -3630,7 +3848,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>71991</v>
@@ -3638,10 +3856,10 @@
       <c r="G6">
         <v>77005</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0.61808643989216505</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>0.616636904523579</v>
       </c>
       <c r="K6" t="s">
@@ -3659,10 +3877,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7">
         <v>12322</v>
@@ -3670,10 +3888,10 @@
       <c r="G7">
         <v>13869</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.49062313358550702</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>0.48214844428993597</v>
       </c>
       <c r="K7" t="s">
@@ -3694,7 +3912,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>676</v>
@@ -3705,13 +3923,13 @@
       <c r="G8">
         <v>676</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>0.18017057569296399</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.26432932834350997</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0.19442047742306601</v>
       </c>
       <c r="K8" t="s">
@@ -3735,7 +3953,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>2066</v>
@@ -3746,13 +3964,13 @@
       <c r="G9">
         <v>2041</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0.57071823204419903</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.56619781201161001</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>0.56836535783904196</v>
       </c>
       <c r="K9" t="s">
@@ -3776,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>10291</v>
@@ -3787,13 +4005,13 @@
       <c r="G10">
         <v>9941</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>0.36503263337116898</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.44418618752147498</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>0.366070113418766</v>
       </c>
       <c r="K10" t="s">
@@ -3817,7 +4035,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>304280</v>
@@ -3828,13 +4046,13 @@
       <c r="G11">
         <v>300002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.61988404167328803</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.62075298927799505</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>0.61986573797623401</v>
       </c>
       <c r="K11" t="s">
@@ -3858,21 +4076,30 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>84313</v>
+        <v>520162</v>
+      </c>
+      <c r="F12">
+        <v>520204</v>
       </c>
       <c r="G12">
-        <v>90874</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.59547704977081595</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.59145817604332096</v>
+        <v>520204</v>
+      </c>
+      <c r="H12">
+        <v>0.56085361212015294</v>
+      </c>
+      <c r="I12">
+        <v>0.560672802189215</v>
+      </c>
+      <c r="J12">
+        <v>0.560672802189215</v>
       </c>
       <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
@@ -3890,30 +4117,21 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>94604</v>
-      </c>
-      <c r="F13">
-        <v>21977</v>
+        <v>84313</v>
       </c>
       <c r="G13">
-        <v>100815</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.55721193773154798</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.44418618752147498</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.557605088495575</v>
+        <v>90874</v>
+      </c>
+      <c r="H13">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J13">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
@@ -3931,25 +4149,25 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>215882</v>
+        <v>94604</v>
       </c>
       <c r="F14">
-        <v>170401</v>
+        <v>21977</v>
       </c>
       <c r="G14">
-        <v>220202</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.49448326885503502</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.46774012028316803</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.49612700014870198</v>
+        <v>100815</v>
+      </c>
+      <c r="H14">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I14">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J14">
+        <v>0.557605088495575</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
@@ -3966,40 +4184,40 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>284</v>
+        <v>215882</v>
       </c>
       <c r="F15">
-        <v>470</v>
+        <v>170401</v>
       </c>
       <c r="G15">
-        <v>281</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.462540716612378</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.50429184549356199</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.46755407653910103</v>
+        <v>220202</v>
+      </c>
+      <c r="H15">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I15">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J15">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -4007,40 +4225,40 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>2138</v>
+        <v>284</v>
       </c>
       <c r="F16">
-        <v>2957</v>
+        <v>470</v>
       </c>
       <c r="G16">
-        <v>2046</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.68878865979381398</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.70021311863604097</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.682454969979987</v>
+        <v>281</v>
+      </c>
+      <c r="H16">
+        <v>0.462540716612378</v>
+      </c>
+      <c r="I16">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J16">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -4048,40 +4266,40 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>524</v>
+        <v>2138</v>
       </c>
       <c r="F17">
-        <v>924</v>
+        <v>2957</v>
       </c>
       <c r="G17">
-        <v>511</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.33039092055485503</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.36221089768718201</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.32756410256410301</v>
+        <v>2046</v>
+      </c>
+      <c r="H17">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I17">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J17">
+        <v>0.682454969979987</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -4089,40 +4307,40 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>1600</v>
+        <v>524</v>
       </c>
       <c r="F18">
-        <v>3559</v>
+        <v>924</v>
       </c>
       <c r="G18">
-        <v>1577</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.40650406504065001</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.49355151851338203</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.40404816807583899</v>
+        <v>511</v>
+      </c>
+      <c r="H18">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I18">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J18">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -4130,27 +4348,36 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>11483</v>
+        <v>1600</v>
+      </c>
+      <c r="F19">
+        <v>3559</v>
       </c>
       <c r="G19">
-        <v>12622</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.71536257164216299</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.70227563567573603</v>
+        <v>1577</v>
+      </c>
+      <c r="H19">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I19">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J19">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
@@ -4162,25 +4389,25 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
       <c r="E20">
-        <v>1152</v>
+        <v>11483</v>
       </c>
       <c r="G20">
-        <v>1275</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.45017584994138299</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.45212765957446799</v>
+        <v>12622</v>
+      </c>
+      <c r="H20">
+        <v>0.71536257164216299</v>
+      </c>
+      <c r="J20">
+        <v>0.70227563567573603</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -4194,40 +4421,31 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>77</v>
-      </c>
-      <c r="F21">
-        <v>444</v>
+        <v>1152</v>
       </c>
       <c r="G21">
-        <v>77</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.23913043478260901</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.58191349934469205</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.23913043478260901</v>
+        <v>1275</v>
+      </c>
+      <c r="H21">
+        <v>0.45017584994138299</v>
+      </c>
+      <c r="J21">
+        <v>0.45212765957446799</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -4235,31 +4453,31 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="F22">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="G22">
-        <v>419</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.662974683544304</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.70941336971350599</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.662974683544304</v>
+        <v>77</v>
+      </c>
+      <c r="H22">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I22">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J22">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K22" t="s">
         <v>34</v>
@@ -4276,40 +4494,40 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>1843</v>
+        <v>419</v>
       </c>
       <c r="F23">
-        <v>3414</v>
+        <v>520</v>
       </c>
       <c r="G23">
-        <v>1817</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.593367675466838</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.612403100775194</v>
+        <v>419</v>
+      </c>
+      <c r="H23">
+        <v>0.662974683544304</v>
+      </c>
+      <c r="I23">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J23">
+        <v>0.662974683544304</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -4317,31 +4535,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>55521</v>
+        <v>1843</v>
       </c>
       <c r="F24">
-        <v>62753</v>
+        <v>3414</v>
       </c>
       <c r="G24">
-        <v>54416</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.73700768587471599</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.73742038590801195</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.740474635314609</v>
+        <v>1817</v>
+      </c>
+      <c r="H24">
+        <v>0.593367675466838</v>
+      </c>
+      <c r="I24">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J24">
+        <v>0.612403100775194</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -4358,27 +4576,36 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>12635</v>
+        <v>55521</v>
+      </c>
+      <c r="F25">
+        <v>62753</v>
       </c>
       <c r="G25">
-        <v>13897</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.67889957551985403</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.66834992545568195</v>
+        <v>54416</v>
+      </c>
+      <c r="H25">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I25">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J25">
+        <v>0.740474635314609</v>
       </c>
       <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
@@ -4390,31 +4617,31 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>14478</v>
+        <v>75041</v>
       </c>
       <c r="F26">
-        <v>3414</v>
+        <v>75041</v>
       </c>
       <c r="G26">
-        <v>15714</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.66136363636363604</v>
+        <v>75041</v>
+      </c>
+      <c r="H26">
+        <v>0.69972212897691199</v>
+      </c>
+      <c r="I26">
+        <v>0.69959166169451104</v>
+      </c>
+      <c r="J26">
+        <v>0.69959166169451104</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -4431,36 +4658,27 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27">
-        <v>19520</v>
-      </c>
-      <c r="F27">
-        <v>12288</v>
+        <v>12635</v>
       </c>
       <c r="G27">
-        <v>20625</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.61170129422456199</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.55436253721916495</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.61064069161534795</v>
+        <v>13897</v>
+      </c>
+      <c r="H27">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J27">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
@@ -4472,40 +4690,40 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>976</v>
+        <v>14478</v>
       </c>
       <c r="F28">
-        <v>1606</v>
+        <v>3414</v>
       </c>
       <c r="G28">
-        <v>929</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.69614835948644804</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.66501035196687397</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.68814814814814795</v>
+        <v>15714</v>
+      </c>
+      <c r="H28">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I28">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J28">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -4513,31 +4731,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>10520</v>
+        <v>19520</v>
       </c>
       <c r="F29">
-        <v>14057</v>
+        <v>12288</v>
       </c>
       <c r="G29">
-        <v>10168</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.65443234836703001</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.67656543293064397</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.65944613788183404</v>
+        <v>20625</v>
+      </c>
+      <c r="H29">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I29">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J29">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -4554,40 +4772,40 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>6072</v>
+        <v>976</v>
       </c>
       <c r="F30">
-        <v>8471</v>
+        <v>1606</v>
       </c>
       <c r="G30">
-        <v>5883</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.33355306526038198</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.37133964580045598</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.33481304422059099</v>
+        <v>929</v>
+      </c>
+      <c r="H30">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I30">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J30">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -4595,31 +4813,31 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>9666</v>
+        <v>10520</v>
       </c>
       <c r="F31">
-        <v>16206</v>
+        <v>14057</v>
       </c>
       <c r="G31">
-        <v>9382</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.44525312082546398</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.51205409333628205</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.439129417271238</v>
+        <v>10168</v>
+      </c>
+      <c r="H31">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I31">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J31">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -4636,27 +4854,36 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>36172</v>
+        <v>6072</v>
+      </c>
+      <c r="F32">
+        <v>8471</v>
       </c>
       <c r="G32">
-        <v>39925</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.68624549421362202</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.67662610581974703</v>
+        <v>5883</v>
+      </c>
+      <c r="H32">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I32">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J32">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
@@ -4668,27 +4895,36 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
       <c r="E33">
-        <v>7186</v>
+        <v>9666</v>
+      </c>
+      <c r="F33">
+        <v>16206</v>
       </c>
       <c r="G33">
-        <v>7949</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.57965636847624402</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.54669876203576295</v>
+        <v>9382</v>
+      </c>
+      <c r="H33">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I33">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J33">
+        <v>0.439129417271238</v>
       </c>
       <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
@@ -4700,40 +4936,31 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34">
-        <v>891</v>
-      </c>
-      <c r="F34">
-        <v>1303</v>
+        <v>36172</v>
       </c>
       <c r="G34">
-        <v>849</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.31395348837209303</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.35523446019629201</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.30705244122965603</v>
+        <v>39925</v>
+      </c>
+      <c r="H34">
+        <v>0.68624549421362202</v>
+      </c>
+      <c r="J34">
+        <v>0.67662610581974703</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -4741,40 +4968,31 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35">
-        <v>847</v>
-      </c>
-      <c r="F35">
-        <v>1025</v>
+        <v>7186</v>
       </c>
       <c r="G35">
-        <v>774</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.589422407794015</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.61746987951807197</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.577181208053691</v>
+        <v>7949</v>
+      </c>
+      <c r="H35">
+        <v>0.57965636847624402</v>
+      </c>
+      <c r="J35">
+        <v>0.54669876203576295</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -4782,40 +5000,40 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>5319</v>
+        <v>891</v>
       </c>
       <c r="F36">
-        <v>13235</v>
+        <v>1303</v>
       </c>
       <c r="G36">
-        <v>5117</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.455004277159966</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.47026927672088997</v>
+        <v>849</v>
+      </c>
+      <c r="H36">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I36">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J36">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -4823,40 +5041,40 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>146314</v>
+        <v>847</v>
       </c>
       <c r="F37">
-        <v>168085</v>
+        <v>1025</v>
       </c>
       <c r="G37">
-        <v>143012</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.70311155962421001</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.70099967052994605</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.70634720719919797</v>
+        <v>774</v>
+      </c>
+      <c r="H37">
+        <v>0.589422407794015</v>
+      </c>
+      <c r="I37">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J37">
+        <v>0.577181208053691</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -4864,27 +5082,36 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>43358</v>
+        <v>5319</v>
+      </c>
+      <c r="F38">
+        <v>13235</v>
       </c>
       <c r="G38">
-        <v>47874</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.66594989786044501</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.65093954803796295</v>
+        <v>5117</v>
+      </c>
+      <c r="H38">
+        <v>0.455004277159966</v>
+      </c>
+      <c r="I38">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J38">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
@@ -4896,31 +5123,31 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>48677</v>
+        <v>146314</v>
       </c>
       <c r="F39">
-        <v>13235</v>
+        <v>168085</v>
       </c>
       <c r="G39">
-        <v>52991</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.63383986353633603</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.62765466023902305</v>
+        <v>143012</v>
+      </c>
+      <c r="H39">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I39">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J39">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -4937,31 +5164,31 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>77649</v>
+        <v>223963</v>
       </c>
       <c r="F40">
-        <v>55903</v>
+        <v>223988</v>
       </c>
       <c r="G40">
-        <v>80976</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.56079646401178695</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.52281952004189802</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.56140545487319604</v>
+        <v>223988</v>
+      </c>
+      <c r="H40">
+        <v>0.64625155457832295</v>
+      </c>
+      <c r="I40">
+        <v>0.64604779279214297</v>
+      </c>
+      <c r="J40">
+        <v>0.64604779279214297</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -4981,37 +5208,28 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>519</v>
-      </c>
-      <c r="F41">
-        <v>969</v>
+        <v>43358</v>
       </c>
       <c r="G41">
-        <v>519</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.58776896942242396</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.54994324631100999</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.62756952841596103</v>
+        <v>47874</v>
+      </c>
+      <c r="H41">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J41">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -5022,28 +5240,28 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>24413</v>
+        <v>48677</v>
       </c>
       <c r="F42">
-        <v>27742</v>
+        <v>13235</v>
       </c>
       <c r="G42">
-        <v>24214</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.77708810797046102</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.77787124270973496</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.77723566797201005</v>
+        <v>52991</v>
+      </c>
+      <c r="H42">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I42">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J42">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K42" t="s">
         <v>17</v>
@@ -5063,28 +5281,28 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>3337</v>
+        <v>77649</v>
       </c>
       <c r="F43">
-        <v>4599</v>
+        <v>55903</v>
       </c>
       <c r="G43">
-        <v>3321</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.42320862396956199</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.45288035450517</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.42251908396946602</v>
+        <v>80976</v>
+      </c>
+      <c r="H43">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I43">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J43">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -5101,40 +5319,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>7297</v>
+        <v>519</v>
       </c>
       <c r="F44">
-        <v>11935</v>
+        <v>969</v>
       </c>
       <c r="G44">
-        <v>7086</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.39865603146853101</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.47987616099071201</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.39673030625384897</v>
+        <v>519</v>
+      </c>
+      <c r="H44">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I44">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J44">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -5142,27 +5360,36 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>28520</v>
+        <v>24413</v>
+      </c>
+      <c r="F45">
+        <v>27742</v>
       </c>
       <c r="G45">
-        <v>31420</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.71976579850595601</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.70158985351911396</v>
+        <v>24214</v>
+      </c>
+      <c r="H45">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I45">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J45">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
@@ -5174,27 +5401,36 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
         <v>39</v>
       </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
       <c r="E46">
-        <v>3789</v>
+        <v>3337</v>
+      </c>
+      <c r="F46">
+        <v>4599</v>
       </c>
       <c r="G46">
-        <v>4186</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.58256457564575603</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.57602862254025</v>
+        <v>3321</v>
+      </c>
+      <c r="H46">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I46">
+        <v>0.45288035450517</v>
+      </c>
+      <c r="J46">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
@@ -5206,40 +5442,40 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>7297</v>
       </c>
       <c r="F47">
-        <v>213</v>
+        <v>11935</v>
       </c>
       <c r="G47">
-        <v>25</v>
-      </c>
-      <c r="H47" s="1">
-        <v>4.3630017452007001E-2</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.24122310305775799</v>
-      </c>
-      <c r="J47" s="1">
-        <v>4.63821892393321E-2</v>
+        <v>7086</v>
+      </c>
+      <c r="H47">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I47">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J47">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -5247,40 +5483,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>832</v>
-      </c>
-      <c r="F48">
-        <v>1043</v>
+        <v>28520</v>
       </c>
       <c r="G48">
-        <v>832</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.61221486387049295</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.56839237057220704</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.62415603900975203</v>
+        <v>31420</v>
+      </c>
+      <c r="H48">
+        <v>0.71976579850595601</v>
+      </c>
+      <c r="J48">
+        <v>0.70158985351911396</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -5288,36 +5515,27 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>4283</v>
-      </c>
-      <c r="F49">
-        <v>9170</v>
+        <v>3789</v>
       </c>
       <c r="G49">
-        <v>4149</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.58050962320412003</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.64130358766347295</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.58436619718309901</v>
+        <v>4186</v>
+      </c>
+      <c r="H49">
+        <v>0.58256457564575603</v>
+      </c>
+      <c r="J49">
+        <v>0.57602862254025</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
@@ -5329,40 +5547,40 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>139417</v>
+        <v>25</v>
       </c>
       <c r="F50">
-        <v>156774</v>
+        <v>213</v>
       </c>
       <c r="G50">
-        <v>136693</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.70495226730310301</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.70505221309779698</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.70787977338401498</v>
+        <v>25</v>
+      </c>
+      <c r="H50">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J50">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -5370,31 +5588,40 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>32309</v>
+        <v>832</v>
+      </c>
+      <c r="F51">
+        <v>1043</v>
       </c>
       <c r="G51">
-        <v>35606</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.70042056885188997</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.68405986436379695</v>
+        <v>832</v>
+      </c>
+      <c r="H51">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I51">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J51">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -5402,31 +5629,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>36592</v>
+        <v>4283</v>
       </c>
       <c r="F52">
         <v>9170</v>
       </c>
       <c r="G52">
-        <v>39755</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.68388591933614895</v>
-      </c>
-      <c r="I52" s="1">
+        <v>4149</v>
+      </c>
+      <c r="H52">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I52">
         <v>0.64130358766347295</v>
       </c>
-      <c r="J52" s="1">
-        <v>0.67209345573194001</v>
+      <c r="J52">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -5443,31 +5670,31 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>73015</v>
+        <v>139417</v>
       </c>
       <c r="F53">
-        <v>55671</v>
+        <v>156774</v>
       </c>
       <c r="G53">
-        <v>75752</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.64089847795937704</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.62223787010025799</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.63804590440092601</v>
+        <v>136693</v>
+      </c>
+      <c r="H53">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I53">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J53">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -5487,28 +5714,28 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>2381</v>
+        <v>212432</v>
       </c>
       <c r="F54">
-        <v>4344</v>
+        <v>212445</v>
       </c>
       <c r="G54">
-        <v>2142</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.49937080536912798</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.52552625211710602</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.48232380094573302</v>
+        <v>212445</v>
+      </c>
+      <c r="H54">
+        <v>0.68154022855749596</v>
+      </c>
+      <c r="I54">
+        <v>0.681291228790323</v>
+      </c>
+      <c r="J54">
+        <v>0.681291228790323</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -5528,33 +5755,24 @@
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>125995</v>
-      </c>
-      <c r="F55">
-        <v>146325</v>
+        <v>32309</v>
       </c>
       <c r="G55">
-        <v>124193</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.61315314350786199</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.62423477114591297</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.61223755367239996</v>
+        <v>35606</v>
+      </c>
+      <c r="H55">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J55">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
@@ -5569,28 +5787,28 @@
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E56">
-        <v>22287</v>
+        <v>36592</v>
       </c>
       <c r="F56">
-        <v>28660</v>
+        <v>9170</v>
       </c>
       <c r="G56">
-        <v>21846</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.292630086264624</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.31912524496704098</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.29327820215065298</v>
+        <v>39755</v>
+      </c>
+      <c r="H56">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I56">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J56">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -5610,28 +5828,28 @@
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>35219</v>
+        <v>73015</v>
       </c>
       <c r="F57">
-        <v>58712</v>
+        <v>55671</v>
       </c>
       <c r="G57">
-        <v>34406</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.35890145725058598</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.42602038965279498</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.35594132130516598</v>
+        <v>75752</v>
+      </c>
+      <c r="H57">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I57">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J57">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -5648,27 +5866,36 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>148166</v>
+        <v>2381</v>
+      </c>
+      <c r="F58">
+        <v>4344</v>
       </c>
       <c r="G58">
-        <v>160972</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.658925553677844</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.65265445463465299</v>
+        <v>2142</v>
+      </c>
+      <c r="H58">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I58">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J58">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
@@ -5680,27 +5907,36 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
         <v>39</v>
       </c>
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
       <c r="E59">
-        <v>24449</v>
+        <v>125995</v>
+      </c>
+      <c r="F59">
+        <v>146325</v>
       </c>
       <c r="G59">
-        <v>27279</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.524938271604938</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.51091923883727897</v>
+        <v>124193</v>
+      </c>
+      <c r="H59">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I59">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J59">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
@@ -5712,31 +5948,31 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E60">
-        <v>1669</v>
+        <v>22287</v>
       </c>
       <c r="F60">
-        <v>3302</v>
+        <v>28660</v>
       </c>
       <c r="G60">
-        <v>1627</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.222979291917168</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.31777499759407202</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.229058144446009</v>
+        <v>21846</v>
+      </c>
+      <c r="H60">
+        <v>0.292630086264624</v>
+      </c>
+      <c r="I60">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J60">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -5753,31 +5989,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>4164</v>
+        <v>35219</v>
       </c>
       <c r="F61">
-        <v>5124</v>
+        <v>58712</v>
       </c>
       <c r="G61">
-        <v>4066</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0.59080590238365505</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.58849201791661898</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0.58953168044077098</v>
+        <v>34406</v>
+      </c>
+      <c r="H61">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I61">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J61">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -5794,36 +6030,27 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E62">
-        <v>21736</v>
-      </c>
-      <c r="F62">
-        <v>47796</v>
+        <v>148166</v>
       </c>
       <c r="G62">
-        <v>21024</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.43156097367271601</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0.43705305172127101</v>
+        <v>160972</v>
+      </c>
+      <c r="H62">
+        <v>0.658925553677844</v>
+      </c>
+      <c r="J62">
+        <v>0.65265445463465299</v>
       </c>
       <c r="K62" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" t="s">
         <v>17</v>
       </c>
       <c r="M62" t="s">
@@ -5835,36 +6062,27 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E63">
-        <v>645532</v>
-      </c>
-      <c r="F63">
-        <v>737415</v>
+        <v>24449</v>
       </c>
       <c r="G63">
-        <v>634123</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.66408521267162002</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.66388986170593001</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0.66537150747715701</v>
+        <v>27279</v>
+      </c>
+      <c r="H63">
+        <v>0.524938271604938</v>
+      </c>
+      <c r="J63">
+        <v>0.51091923883727897</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
@@ -5876,27 +6094,36 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E64">
-        <v>172615</v>
+        <v>1669</v>
+      </c>
+      <c r="F64">
+        <v>3302</v>
       </c>
       <c r="G64">
-        <v>188251</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.63593493838303805</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0.62743222434790702</v>
+        <v>1627</v>
+      </c>
+      <c r="H64">
+        <v>0.222979291917168</v>
+      </c>
+      <c r="I64">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J64">
+        <v>0.229058144446009</v>
       </c>
       <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
@@ -5908,31 +6135,31 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E65">
-        <v>194351</v>
+        <v>4164</v>
       </c>
       <c r="F65">
-        <v>47796</v>
+        <v>5124</v>
       </c>
       <c r="G65">
-        <v>209275</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.60394778139284799</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0.60112656475305803</v>
+        <v>4066</v>
+      </c>
+      <c r="H65">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I65">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J65">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -5949,39 +6176,235 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66">
+        <v>21736</v>
+      </c>
+      <c r="F66">
+        <v>47796</v>
+      </c>
+      <c r="G66">
+        <v>21024</v>
+      </c>
+      <c r="H66">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I66">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J66">
+        <v>0.43705305172127101</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2023</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67">
+        <v>645532</v>
+      </c>
+      <c r="F67">
+        <v>737415</v>
+      </c>
+      <c r="G67">
+        <v>634123</v>
+      </c>
+      <c r="H67">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I67">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J67">
+        <v>0.66537150747715701</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2023</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68">
+        <v>1031598</v>
+      </c>
+      <c r="F68">
+        <v>1031678</v>
+      </c>
+      <c r="G68">
+        <v>1031678</v>
+      </c>
+      <c r="H68">
+        <v>0.60935224006492805</v>
+      </c>
+      <c r="I68">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="J68">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2023</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69">
+        <v>172615</v>
+      </c>
+      <c r="G69">
+        <v>188251</v>
+      </c>
+      <c r="H69">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J69">
+        <v>0.62743222434790702</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2023</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
         <v>31</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70">
+        <v>194351</v>
+      </c>
+      <c r="F70">
+        <v>47796</v>
+      </c>
+      <c r="G70">
+        <v>209275</v>
+      </c>
+      <c r="H70">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I70">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J70">
+        <v>0.60112656475305803</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2023</v>
+      </c>
+      <c r="B71" t="s">
         <v>38</v>
       </c>
-      <c r="E66">
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71">
         <v>386066</v>
       </c>
-      <c r="F66">
+      <c r="F71">
         <v>294263</v>
       </c>
-      <c r="G66">
+      <c r="G71">
         <v>397555</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H71">
         <v>0.53554821884363601</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I71">
         <v>0.504853586060652</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J71">
         <v>0.53681501415780297</v>
       </c>
-      <c r="K66" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5993,16 +6416,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.90625" style="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -6027,13 +6460,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -6057,7 +6490,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>602</v>
@@ -6068,13 +6501,13 @@
       <c r="G2">
         <v>413</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>0.32209737827715401</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.41146658219829002</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>0.24834636199639201</v>
       </c>
       <c r="K2" t="s">
@@ -6098,7 +6531,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>88924</v>
@@ -6109,13 +6542,13 @@
       <c r="G3">
         <v>87765</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>0.57410324613278896</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>0.58459333613440501</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>0.57257959290187899</v>
       </c>
       <c r="K3" t="s">
@@ -6139,7 +6572,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>12354</v>
@@ -6150,13 +6583,13 @@
       <c r="G4">
         <v>12131</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.25479519861403299</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.27014183090808602</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>0.255400227377995</v>
       </c>
       <c r="K4" t="s">
@@ -6180,7 +6613,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>16656</v>
@@ -6191,13 +6624,13 @@
       <c r="G5">
         <v>16361</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0.30741403813144802</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.36461314183899401</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.305624568023462</v>
       </c>
       <c r="K5" t="s">
@@ -6218,10 +6651,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
       </c>
       <c r="E6">
         <v>84313</v>
@@ -6229,10 +6662,10 @@
       <c r="G6">
         <v>90874</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0.59547704977081595</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>0.59145817604332096</v>
       </c>
       <c r="K6" t="s">
@@ -6253,7 +6686,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>676</v>
@@ -6264,13 +6697,13 @@
       <c r="G7">
         <v>676</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0.18017057569296399</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.26432932834350997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>0.19442047742306601</v>
       </c>
       <c r="K7" t="s">
@@ -6294,7 +6727,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>2066</v>
@@ -6305,13 +6738,13 @@
       <c r="G8">
         <v>2041</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>0.57071823204419903</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.56619781201161001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>0.56836535783904196</v>
       </c>
       <c r="K8" t="s">
@@ -6335,7 +6768,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>10291</v>
@@ -6346,13 +6779,13 @@
       <c r="G9">
         <v>9941</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0.36503263337116898</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.44418618752147498</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>0.366070113418766</v>
       </c>
       <c r="K9" t="s">
@@ -6376,7 +6809,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>304280</v>
@@ -6387,13 +6820,13 @@
       <c r="G10">
         <v>300002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>0.61988404167328803</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.62075298927799505</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>0.61986573797623401</v>
       </c>
       <c r="K10" t="s">
@@ -6417,21 +6850,30 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>84313</v>
+        <v>520162</v>
+      </c>
+      <c r="F11">
+        <v>520204</v>
       </c>
       <c r="G11">
-        <v>90874</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.59547704977081595</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.59145817604332096</v>
+        <v>520204</v>
+      </c>
+      <c r="H11">
+        <v>0.56085361212015294</v>
+      </c>
+      <c r="I11">
+        <v>0.560672802189215</v>
+      </c>
+      <c r="J11">
+        <v>0.560672802189215</v>
       </c>
       <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
@@ -6449,30 +6891,21 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>94604</v>
-      </c>
-      <c r="F12">
-        <v>21977</v>
+        <v>84313</v>
       </c>
       <c r="G12">
-        <v>100815</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.55721193773154798</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.44418618752147498</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.557605088495575</v>
+        <v>90874</v>
+      </c>
+      <c r="H12">
+        <v>0.59547704977081595</v>
+      </c>
+      <c r="J12">
+        <v>0.59145817604332096</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
@@ -6490,25 +6923,25 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>215882</v>
+        <v>94604</v>
       </c>
       <c r="F13">
-        <v>170401</v>
+        <v>21977</v>
       </c>
       <c r="G13">
-        <v>220202</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.49448326885503502</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.46774012028316803</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.49612700014870198</v>
+        <v>100815</v>
+      </c>
+      <c r="H13">
+        <v>0.55721193773154798</v>
+      </c>
+      <c r="I13">
+        <v>0.44418618752147498</v>
+      </c>
+      <c r="J13">
+        <v>0.557605088495575</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -6525,40 +6958,40 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>215882</v>
       </c>
       <c r="F14">
-        <v>470</v>
+        <v>170401</v>
       </c>
       <c r="G14">
-        <v>281</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.462540716612378</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.50429184549356199</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.46755407653910103</v>
+        <v>220202</v>
+      </c>
+      <c r="H14">
+        <v>0.49448326885503502</v>
+      </c>
+      <c r="I14">
+        <v>0.46774012028316803</v>
+      </c>
+      <c r="J14">
+        <v>0.49612700014870198</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -6566,40 +6999,40 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>2138</v>
+        <v>284</v>
       </c>
       <c r="F15">
-        <v>2957</v>
+        <v>470</v>
       </c>
       <c r="G15">
-        <v>2046</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.68878865979381398</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.70021311863604097</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.682454969979987</v>
+        <v>281</v>
+      </c>
+      <c r="H15">
+        <v>0.462540716612378</v>
+      </c>
+      <c r="I15">
+        <v>0.50429184549356199</v>
+      </c>
+      <c r="J15">
+        <v>0.46755407653910103</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -6607,40 +7040,40 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>524</v>
+        <v>2138</v>
       </c>
       <c r="F16">
-        <v>924</v>
+        <v>2957</v>
       </c>
       <c r="G16">
-        <v>511</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.33039092055485503</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.36221089768718201</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.32756410256410301</v>
+        <v>2046</v>
+      </c>
+      <c r="H16">
+        <v>0.68878865979381398</v>
+      </c>
+      <c r="I16">
+        <v>0.70021311863604097</v>
+      </c>
+      <c r="J16">
+        <v>0.682454969979987</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -6648,40 +7081,40 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>1600</v>
+        <v>524</v>
       </c>
       <c r="F17">
-        <v>3559</v>
+        <v>924</v>
       </c>
       <c r="G17">
-        <v>1577</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.40650406504065001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.49355151851338203</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.40404816807583899</v>
+        <v>511</v>
+      </c>
+      <c r="H17">
+        <v>0.33039092055485503</v>
+      </c>
+      <c r="I17">
+        <v>0.36221089768718201</v>
+      </c>
+      <c r="J17">
+        <v>0.32756410256410301</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -6689,27 +7122,36 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
       <c r="E18">
-        <v>12635</v>
+        <v>1600</v>
+      </c>
+      <c r="F18">
+        <v>3559</v>
       </c>
       <c r="G18">
-        <v>13897</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.67889957551985403</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.66834992545568195</v>
+        <v>1577</v>
+      </c>
+      <c r="H18">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="I18">
+        <v>0.49355151851338203</v>
+      </c>
+      <c r="J18">
+        <v>0.40404816807583899</v>
       </c>
       <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
@@ -6721,40 +7163,31 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>444</v>
+        <v>12635</v>
       </c>
       <c r="G19">
-        <v>77</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.23913043478260901</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.58191349934469205</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.23913043478260901</v>
+        <v>13897</v>
+      </c>
+      <c r="H19">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J19">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -6762,31 +7195,31 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>520</v>
+        <v>444</v>
       </c>
       <c r="G20">
-        <v>419</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.662974683544304</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.70941336971350599</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.662974683544304</v>
+        <v>77</v>
+      </c>
+      <c r="H20">
+        <v>0.23913043478260901</v>
+      </c>
+      <c r="I20">
+        <v>0.58191349934469205</v>
+      </c>
+      <c r="J20">
+        <v>0.23913043478260901</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -6803,40 +7236,40 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21">
-        <v>1843</v>
+        <v>419</v>
       </c>
       <c r="F21">
-        <v>3414</v>
+        <v>520</v>
       </c>
       <c r="G21">
-        <v>1817</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.593367675466838</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.612403100775194</v>
+        <v>419</v>
+      </c>
+      <c r="H21">
+        <v>0.662974683544304</v>
+      </c>
+      <c r="I21">
+        <v>0.70941336971350599</v>
+      </c>
+      <c r="J21">
+        <v>0.662974683544304</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -6844,31 +7277,31 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>55521</v>
+        <v>1843</v>
       </c>
       <c r="F22">
-        <v>62753</v>
+        <v>3414</v>
       </c>
       <c r="G22">
-        <v>54416</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.73700768587471599</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.73742038590801195</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.740474635314609</v>
+        <v>1817</v>
+      </c>
+      <c r="H22">
+        <v>0.593367675466838</v>
+      </c>
+      <c r="I22">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J22">
+        <v>0.612403100775194</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -6885,27 +7318,36 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>12635</v>
+        <v>55521</v>
+      </c>
+      <c r="F23">
+        <v>62753</v>
       </c>
       <c r="G23">
-        <v>13897</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.67889957551985403</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.66834992545568195</v>
+        <v>54416</v>
+      </c>
+      <c r="H23">
+        <v>0.73700768587471599</v>
+      </c>
+      <c r="I23">
+        <v>0.73742038590801195</v>
+      </c>
+      <c r="J23">
+        <v>0.740474635314609</v>
       </c>
       <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
@@ -6917,31 +7359,31 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>14478</v>
+        <v>75041</v>
       </c>
       <c r="F24">
-        <v>3414</v>
+        <v>75041</v>
       </c>
       <c r="G24">
-        <v>15714</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.59342951503563401</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.66136363636363604</v>
+        <v>75041</v>
+      </c>
+      <c r="H24">
+        <v>0.69972212897691199</v>
+      </c>
+      <c r="I24">
+        <v>0.69959166169451104</v>
+      </c>
+      <c r="J24">
+        <v>0.69959166169451104</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -6958,36 +7400,27 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>19520</v>
-      </c>
-      <c r="F25">
-        <v>12288</v>
+        <v>12635</v>
       </c>
       <c r="G25">
-        <v>20625</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.61170129422456199</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.55436253721916495</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.61064069161534795</v>
+        <v>13897</v>
+      </c>
+      <c r="H25">
+        <v>0.67889957551985403</v>
+      </c>
+      <c r="J25">
+        <v>0.66834992545568195</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
@@ -6999,40 +7432,40 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>976</v>
+        <v>14478</v>
       </c>
       <c r="F26">
-        <v>1606</v>
+        <v>3414</v>
       </c>
       <c r="G26">
-        <v>929</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.69614835948644804</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.66501035196687397</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.68814814814814795</v>
+        <v>15714</v>
+      </c>
+      <c r="H26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I26">
+        <v>0.59342951503563401</v>
+      </c>
+      <c r="J26">
+        <v>0.66136363636363604</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -7040,31 +7473,31 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>10520</v>
+        <v>19520</v>
       </c>
       <c r="F27">
-        <v>14057</v>
+        <v>12288</v>
       </c>
       <c r="G27">
-        <v>10168</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.65443234836703001</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.67656543293064397</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.65944613788183404</v>
+        <v>20625</v>
+      </c>
+      <c r="H27">
+        <v>0.61170129422456199</v>
+      </c>
+      <c r="I27">
+        <v>0.55436253721916495</v>
+      </c>
+      <c r="J27">
+        <v>0.61064069161534795</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
@@ -7081,40 +7514,40 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>6072</v>
+        <v>976</v>
       </c>
       <c r="F28">
-        <v>8471</v>
+        <v>1606</v>
       </c>
       <c r="G28">
-        <v>5883</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.33355306526038198</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.37133964580045598</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.33481304422059099</v>
+        <v>929</v>
+      </c>
+      <c r="H28">
+        <v>0.69614835948644804</v>
+      </c>
+      <c r="I28">
+        <v>0.66501035196687397</v>
+      </c>
+      <c r="J28">
+        <v>0.68814814814814795</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -7122,31 +7555,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>9666</v>
+        <v>10520</v>
       </c>
       <c r="F29">
-        <v>16206</v>
+        <v>14057</v>
       </c>
       <c r="G29">
-        <v>9382</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.44525312082546398</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.51205409333628205</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.439129417271238</v>
+        <v>10168</v>
+      </c>
+      <c r="H29">
+        <v>0.65443234836703001</v>
+      </c>
+      <c r="I29">
+        <v>0.67656543293064397</v>
+      </c>
+      <c r="J29">
+        <v>0.65944613788183404</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -7163,27 +7596,36 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
       <c r="E30">
-        <v>43358</v>
+        <v>6072</v>
+      </c>
+      <c r="F30">
+        <v>8471</v>
       </c>
       <c r="G30">
-        <v>47874</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.66594989786044501</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.65093954803796295</v>
+        <v>5883</v>
+      </c>
+      <c r="H30">
+        <v>0.33355306526038198</v>
+      </c>
+      <c r="I30">
+        <v>0.37133964580045598</v>
+      </c>
+      <c r="J30">
+        <v>0.33481304422059099</v>
       </c>
       <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
@@ -7195,40 +7637,40 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>891</v>
+        <v>9666</v>
       </c>
       <c r="F31">
-        <v>1303</v>
+        <v>16206</v>
       </c>
       <c r="G31">
-        <v>849</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.31395348837209303</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.35523446019629201</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.30705244122965603</v>
+        <v>9382</v>
+      </c>
+      <c r="H31">
+        <v>0.44525312082546398</v>
+      </c>
+      <c r="I31">
+        <v>0.51205409333628205</v>
+      </c>
+      <c r="J31">
+        <v>0.439129417271238</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -7236,40 +7678,31 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>847</v>
-      </c>
-      <c r="F32">
-        <v>1025</v>
+        <v>43358</v>
       </c>
       <c r="G32">
-        <v>774</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.589422407794015</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.61746987951807197</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.577181208053691</v>
+        <v>47874</v>
+      </c>
+      <c r="H32">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J32">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -7277,40 +7710,40 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <v>5319</v>
+        <v>891</v>
       </c>
       <c r="F33">
-        <v>13235</v>
+        <v>1303</v>
       </c>
       <c r="G33">
-        <v>5117</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.455004277159966</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.47026927672088997</v>
+        <v>849</v>
+      </c>
+      <c r="H33">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I33">
+        <v>0.35523446019629201</v>
+      </c>
+      <c r="J33">
+        <v>0.30705244122965603</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -7318,40 +7751,40 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>146314</v>
+        <v>847</v>
       </c>
       <c r="F34">
-        <v>168085</v>
+        <v>1025</v>
       </c>
       <c r="G34">
-        <v>143012</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.70311155962421001</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.70099967052994605</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.70634720719919797</v>
+        <v>774</v>
+      </c>
+      <c r="H34">
+        <v>0.589422407794015</v>
+      </c>
+      <c r="I34">
+        <v>0.61746987951807197</v>
+      </c>
+      <c r="J34">
+        <v>0.577181208053691</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -7359,27 +7792,36 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>43358</v>
+        <v>5319</v>
+      </c>
+      <c r="F35">
+        <v>13235</v>
       </c>
       <c r="G35">
-        <v>47874</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.66594989786044501</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.65093954803796295</v>
+        <v>5117</v>
+      </c>
+      <c r="H35">
+        <v>0.455004277159966</v>
+      </c>
+      <c r="I35">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J35">
+        <v>0.47026927672088997</v>
       </c>
       <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
@@ -7391,31 +7833,31 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>48677</v>
+        <v>146314</v>
       </c>
       <c r="F36">
-        <v>13235</v>
+        <v>168085</v>
       </c>
       <c r="G36">
-        <v>52991</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.63383986353633603</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.55272499477970305</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.62765466023902305</v>
+        <v>143012</v>
+      </c>
+      <c r="H36">
+        <v>0.70311155962421001</v>
+      </c>
+      <c r="I36">
+        <v>0.70099967052994605</v>
+      </c>
+      <c r="J36">
+        <v>0.70634720719919797</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -7432,31 +7874,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>77649</v>
+        <v>223963</v>
       </c>
       <c r="F37">
-        <v>55903</v>
+        <v>223988</v>
       </c>
       <c r="G37">
-        <v>80976</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.56079646401178695</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.52281952004189802</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.56140545487319604</v>
+        <v>223988</v>
+      </c>
+      <c r="H37">
+        <v>0.64625155457832295</v>
+      </c>
+      <c r="I37">
+        <v>0.64604779279214297</v>
+      </c>
+      <c r="J37">
+        <v>0.64604779279214297</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -7476,37 +7918,28 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>519</v>
-      </c>
-      <c r="F38">
-        <v>969</v>
+        <v>43358</v>
       </c>
       <c r="G38">
-        <v>519</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.58776896942242396</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.54994324631100999</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.62756952841596103</v>
+        <v>47874</v>
+      </c>
+      <c r="H38">
+        <v>0.66594989786044501</v>
+      </c>
+      <c r="J38">
+        <v>0.65093954803796295</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -7517,28 +7950,28 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39">
-        <v>24413</v>
+        <v>48677</v>
       </c>
       <c r="F39">
-        <v>27742</v>
+        <v>13235</v>
       </c>
       <c r="G39">
-        <v>24214</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.77708810797046102</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.77787124270973496</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.77723566797201005</v>
+        <v>52991</v>
+      </c>
+      <c r="H39">
+        <v>0.63383986353633603</v>
+      </c>
+      <c r="I39">
+        <v>0.55272499477970305</v>
+      </c>
+      <c r="J39">
+        <v>0.62765466023902305</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -7558,28 +7991,28 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>3337</v>
+        <v>77649</v>
       </c>
       <c r="F40">
-        <v>4599</v>
+        <v>55903</v>
       </c>
       <c r="G40">
-        <v>3321</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.42320862396956199</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.45288035450517</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.42251908396946602</v>
+        <v>80976</v>
+      </c>
+      <c r="H40">
+        <v>0.56079646401178695</v>
+      </c>
+      <c r="I40">
+        <v>0.52281952004189802</v>
+      </c>
+      <c r="J40">
+        <v>0.56140545487319604</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -7596,40 +8029,40 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>7297</v>
+        <v>519</v>
       </c>
       <c r="F41">
-        <v>11935</v>
+        <v>969</v>
       </c>
       <c r="G41">
-        <v>7086</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.39865603146853101</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.47987616099071201</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.39673030625384897</v>
+        <v>519</v>
+      </c>
+      <c r="H41">
+        <v>0.58776896942242396</v>
+      </c>
+      <c r="I41">
+        <v>0.54994324631100999</v>
+      </c>
+      <c r="J41">
+        <v>0.62756952841596103</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -7637,27 +8070,36 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
       <c r="E42">
-        <v>32309</v>
+        <v>24413</v>
+      </c>
+      <c r="F42">
+        <v>27742</v>
       </c>
       <c r="G42">
-        <v>35606</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.70042056885188997</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.68405986436379695</v>
+        <v>24214</v>
+      </c>
+      <c r="H42">
+        <v>0.77708810797046102</v>
+      </c>
+      <c r="I42">
+        <v>0.77787124270973496</v>
+      </c>
+      <c r="J42">
+        <v>0.77723566797201005</v>
       </c>
       <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
@@ -7669,40 +8111,40 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>3337</v>
       </c>
       <c r="F43">
-        <v>213</v>
+        <v>4599</v>
       </c>
       <c r="G43">
-        <v>25</v>
-      </c>
-      <c r="H43" s="1">
-        <v>4.3630017452007001E-2</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.24122310305775799</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4.63821892393321E-2</v>
+        <v>3321</v>
+      </c>
+      <c r="H43">
+        <v>0.42320862396956199</v>
+      </c>
+      <c r="I43">
+        <v>0.45288035450517</v>
+      </c>
+      <c r="J43">
+        <v>0.42251908396946602</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -7710,40 +8152,40 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44">
-        <v>832</v>
+        <v>7297</v>
       </c>
       <c r="F44">
-        <v>1043</v>
+        <v>11935</v>
       </c>
       <c r="G44">
-        <v>832</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.61221486387049295</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.56839237057220704</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.62415603900975203</v>
+        <v>7086</v>
+      </c>
+      <c r="H44">
+        <v>0.39865603146853101</v>
+      </c>
+      <c r="I44">
+        <v>0.47987616099071201</v>
+      </c>
+      <c r="J44">
+        <v>0.39673030625384897</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -7751,36 +8193,27 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45">
-        <v>4283</v>
-      </c>
-      <c r="F45">
-        <v>9170</v>
+        <v>32309</v>
       </c>
       <c r="G45">
-        <v>4149</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.58050962320412003</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.64130358766347295</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.58436619718309901</v>
+        <v>35606</v>
+      </c>
+      <c r="H45">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J45">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
@@ -7792,40 +8225,40 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E46">
-        <v>139417</v>
+        <v>25</v>
       </c>
       <c r="F46">
-        <v>156774</v>
+        <v>213</v>
       </c>
       <c r="G46">
-        <v>136693</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.70495226730310301</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.70505221309779698</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.70787977338401498</v>
+        <v>25</v>
+      </c>
+      <c r="H46">
+        <v>4.3630017452007001E-2</v>
+      </c>
+      <c r="I46">
+        <v>0.24122310305775799</v>
+      </c>
+      <c r="J46">
+        <v>4.63821892393321E-2</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -7833,31 +8266,40 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>32309</v>
+        <v>832</v>
+      </c>
+      <c r="F47">
+        <v>1043</v>
       </c>
       <c r="G47">
-        <v>35606</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.70042056885188997</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.68405986436379695</v>
+        <v>832</v>
+      </c>
+      <c r="H47">
+        <v>0.61221486387049295</v>
+      </c>
+      <c r="I47">
+        <v>0.56839237057220704</v>
+      </c>
+      <c r="J47">
+        <v>0.62415603900975203</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -7865,31 +8307,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>36592</v>
+        <v>4283</v>
       </c>
       <c r="F48">
         <v>9170</v>
       </c>
       <c r="G48">
-        <v>39755</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.68388591933614895</v>
-      </c>
-      <c r="I48" s="1">
+        <v>4149</v>
+      </c>
+      <c r="H48">
+        <v>0.58050962320412003</v>
+      </c>
+      <c r="I48">
         <v>0.64130358766347295</v>
       </c>
-      <c r="J48" s="1">
-        <v>0.67209345573194001</v>
+      <c r="J48">
+        <v>0.58436619718309901</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -7906,31 +8348,31 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49">
-        <v>73015</v>
+        <v>139417</v>
       </c>
       <c r="F49">
-        <v>55671</v>
+        <v>156774</v>
       </c>
       <c r="G49">
-        <v>75752</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.64089847795937704</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.62223787010025799</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.63804590440092601</v>
+        <v>136693</v>
+      </c>
+      <c r="H49">
+        <v>0.70495226730310301</v>
+      </c>
+      <c r="I49">
+        <v>0.70505221309779698</v>
+      </c>
+      <c r="J49">
+        <v>0.70787977338401498</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -7950,28 +8392,28 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>2381</v>
+        <v>212432</v>
       </c>
       <c r="F50">
-        <v>4344</v>
+        <v>212445</v>
       </c>
       <c r="G50">
-        <v>2142</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.49937080536912798</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.52552625211710602</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.48232380094573302</v>
+        <v>212445</v>
+      </c>
+      <c r="H50">
+        <v>0.68154022855749596</v>
+      </c>
+      <c r="I50">
+        <v>0.681291228790323</v>
+      </c>
+      <c r="J50">
+        <v>0.681291228790323</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -7991,33 +8433,24 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51">
-        <v>125995</v>
-      </c>
-      <c r="F51">
-        <v>146325</v>
+        <v>32309</v>
       </c>
       <c r="G51">
-        <v>124193</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.61315314350786199</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.62423477114591297</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.61223755367239996</v>
+        <v>35606</v>
+      </c>
+      <c r="H51">
+        <v>0.70042056885188997</v>
+      </c>
+      <c r="J51">
+        <v>0.68405986436379695</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
@@ -8032,28 +8465,28 @@
         <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52">
-        <v>22287</v>
+        <v>36592</v>
       </c>
       <c r="F52">
-        <v>28660</v>
+        <v>9170</v>
       </c>
       <c r="G52">
-        <v>21846</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.292630086264624</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.31912524496704098</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.29327820215065298</v>
+        <v>39755</v>
+      </c>
+      <c r="H52">
+        <v>0.68388591933614895</v>
+      </c>
+      <c r="I52">
+        <v>0.64130358766347295</v>
+      </c>
+      <c r="J52">
+        <v>0.67209345573194001</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -8073,28 +8506,28 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53">
-        <v>35219</v>
+        <v>73015</v>
       </c>
       <c r="F53">
-        <v>58712</v>
+        <v>55671</v>
       </c>
       <c r="G53">
-        <v>34406</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.35890145725058598</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.42602038965279498</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.35594132130516598</v>
+        <v>75752</v>
+      </c>
+      <c r="H53">
+        <v>0.64089847795937704</v>
+      </c>
+      <c r="I53">
+        <v>0.62223787010025799</v>
+      </c>
+      <c r="J53">
+        <v>0.63804590440092601</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -8111,27 +8544,36 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="D54" t="s">
-        <v>40</v>
-      </c>
       <c r="E54">
-        <v>172615</v>
+        <v>2381</v>
+      </c>
+      <c r="F54">
+        <v>4344</v>
       </c>
       <c r="G54">
-        <v>188251</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.63593493838303805</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.62743222434790702</v>
+        <v>2142</v>
+      </c>
+      <c r="H54">
+        <v>0.49937080536912798</v>
+      </c>
+      <c r="I54">
+        <v>0.52552625211710602</v>
+      </c>
+      <c r="J54">
+        <v>0.48232380094573302</v>
       </c>
       <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
@@ -8143,31 +8585,31 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>1669</v>
+        <v>125995</v>
       </c>
       <c r="F55">
-        <v>3302</v>
+        <v>146325</v>
       </c>
       <c r="G55">
-        <v>1627</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.222979291917168</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.31777499759407202</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.229058144446009</v>
+        <v>124193</v>
+      </c>
+      <c r="H55">
+        <v>0.61315314350786199</v>
+      </c>
+      <c r="I55">
+        <v>0.62423477114591297</v>
+      </c>
+      <c r="J55">
+        <v>0.61223755367239996</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
@@ -8184,31 +8626,31 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E56">
-        <v>4164</v>
+        <v>22287</v>
       </c>
       <c r="F56">
-        <v>5124</v>
+        <v>28660</v>
       </c>
       <c r="G56">
-        <v>4066</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.59080590238365505</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.58849201791661898</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.58953168044077098</v>
+        <v>21846</v>
+      </c>
+      <c r="H56">
+        <v>0.292630086264624</v>
+      </c>
+      <c r="I56">
+        <v>0.31912524496704098</v>
+      </c>
+      <c r="J56">
+        <v>0.29327820215065298</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -8225,31 +8667,31 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>21736</v>
+        <v>35219</v>
       </c>
       <c r="F57">
-        <v>47796</v>
+        <v>58712</v>
       </c>
       <c r="G57">
-        <v>21024</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.43156097367271601</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.43705305172127101</v>
+        <v>34406</v>
+      </c>
+      <c r="H57">
+        <v>0.35890145725058598</v>
+      </c>
+      <c r="I57">
+        <v>0.42602038965279498</v>
+      </c>
+      <c r="J57">
+        <v>0.35594132130516598</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -8266,36 +8708,27 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>645532</v>
-      </c>
-      <c r="F58">
-        <v>737415</v>
+        <v>172615</v>
       </c>
       <c r="G58">
-        <v>634123</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.66408521267162002</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.66388986170593001</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0.66537150747715701</v>
+        <v>188251</v>
+      </c>
+      <c r="H58">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J58">
+        <v>0.62743222434790702</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" t="s">
         <v>17</v>
       </c>
       <c r="M58" t="s">
@@ -8307,27 +8740,36 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>172615</v>
+        <v>1669</v>
+      </c>
+      <c r="F59">
+        <v>3302</v>
       </c>
       <c r="G59">
-        <v>188251</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.63593493838303805</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.62743222434790702</v>
+        <v>1627</v>
+      </c>
+      <c r="H59">
+        <v>0.222979291917168</v>
+      </c>
+      <c r="I59">
+        <v>0.31777499759407202</v>
+      </c>
+      <c r="J59">
+        <v>0.229058144446009</v>
       </c>
       <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
         <v>17</v>
       </c>
       <c r="M59" t="s">
@@ -8339,31 +8781,31 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>194351</v>
+        <v>4164</v>
       </c>
       <c r="F60">
-        <v>47796</v>
+        <v>5124</v>
       </c>
       <c r="G60">
-        <v>209275</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0.60394778139284799</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.51132935361704901</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.60112656475305803</v>
+        <v>4066</v>
+      </c>
+      <c r="H60">
+        <v>0.59080590238365505</v>
+      </c>
+      <c r="I60">
+        <v>0.58849201791661898</v>
+      </c>
+      <c r="J60">
+        <v>0.58953168044077098</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -8380,39 +8822,235 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61">
+        <v>21736</v>
+      </c>
+      <c r="F61">
+        <v>47796</v>
+      </c>
+      <c r="G61">
+        <v>21024</v>
+      </c>
+      <c r="H61">
+        <v>0.43156097367271601</v>
+      </c>
+      <c r="I61">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J61">
+        <v>0.43705305172127101</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2023</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>645532</v>
+      </c>
+      <c r="F62">
+        <v>737415</v>
+      </c>
+      <c r="G62">
+        <v>634123</v>
+      </c>
+      <c r="H62">
+        <v>0.66408521267162002</v>
+      </c>
+      <c r="I62">
+        <v>0.66388986170593001</v>
+      </c>
+      <c r="J62">
+        <v>0.66537150747715701</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2023</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63">
+        <v>1031598</v>
+      </c>
+      <c r="F63">
+        <v>1031678</v>
+      </c>
+      <c r="G63">
+        <v>1031678</v>
+      </c>
+      <c r="H63">
+        <v>0.60935224006492805</v>
+      </c>
+      <c r="I63">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="J63">
+        <v>0.60915661569292201</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2023</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>172615</v>
+      </c>
+      <c r="G64">
+        <v>188251</v>
+      </c>
+      <c r="H64">
+        <v>0.63593493838303805</v>
+      </c>
+      <c r="J64">
+        <v>0.62743222434790702</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2023</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
         <v>31</v>
       </c>
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65">
+        <v>194351</v>
+      </c>
+      <c r="F65">
+        <v>47796</v>
+      </c>
+      <c r="G65">
+        <v>209275</v>
+      </c>
+      <c r="H65">
+        <v>0.60394778139284799</v>
+      </c>
+      <c r="I65">
+        <v>0.51132935361704901</v>
+      </c>
+      <c r="J65">
+        <v>0.60112656475305803</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2023</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66">
         <v>386066</v>
       </c>
-      <c r="F61">
+      <c r="F66">
         <v>294263</v>
       </c>
-      <c r="G61">
+      <c r="G66">
         <v>397555</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H66">
         <v>0.53554821884363601</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I66">
         <v>0.504853586060652</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J66">
         <v>0.53681501415780297</v>
       </c>
-      <c r="K61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" t="s">
         <v>17</v>
       </c>
     </row>
